--- a/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.742285228123194</v>
+        <v>1.742285228123166</v>
       </c>
       <c r="C2">
-        <v>0.3579968986602466</v>
+        <v>0.3579968986602182</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2450984326368086</v>
+        <v>0.2450984326368371</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.544277873710371</v>
+        <v>2.544277873710385</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.49922001462528</v>
+        <v>1.499220014625138</v>
       </c>
       <c r="C3">
-        <v>0.3090079889813921</v>
+        <v>0.3090079889812216</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2122683296485306</v>
+        <v>0.2122683296485235</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.268670039942307</v>
+        <v>2.268670039942293</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3985292062452146</v>
+        <v>0.3985292062452288</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6954849767476361</v>
+        <v>0.695484976747629</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.352548726907258</v>
+        <v>1.352548726907315</v>
       </c>
       <c r="C4">
-        <v>0.27941428268511</v>
+        <v>0.2794142826853232</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1926205161245065</v>
+        <v>0.1926205161244923</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.104288822391752</v>
+        <v>2.104288822391766</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3593460213165329</v>
+        <v>0.3593460213165258</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6273735144524721</v>
+        <v>0.627373514452465</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.293328244748153</v>
+        <v>1.293328244748011</v>
       </c>
       <c r="C5">
-        <v>0.2674546710436942</v>
+        <v>0.2674546710439216</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1847247175285176</v>
+        <v>0.1847247175285389</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>2.038366474987242</v>
+        <v>2.038366474987228</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5999190087028268</v>
+        <v>0.5999190087028623</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.283525228996808</v>
+        <v>1.283525228996638</v>
       </c>
       <c r="C6">
         <v>0.2654742268913992</v>
@@ -573,13 +573,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1834198433701673</v>
+        <v>0.1834198433701602</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>2.027480173209966</v>
+        <v>2.02748017320998</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3409014905459955</v>
+        <v>0.3409014905460097</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.351747956903068</v>
+        <v>1.351747956903154</v>
       </c>
       <c r="C7">
-        <v>0.2792526135850011</v>
+        <v>0.2792526135852285</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1925136036159927</v>
+        <v>0.19251360361595</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>2.103395654050047</v>
+        <v>2.103395654050033</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.35913205892669</v>
+        <v>0.3591320589266687</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.627002097384441</v>
+        <v>0.6270020973844055</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.65788086893096</v>
+        <v>1.657880868931215</v>
       </c>
       <c r="C8">
         <v>0.3409907058074282</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2336617441064632</v>
+        <v>0.2336617441064917</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4409035816865483</v>
+        <v>0.4409035816865696</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7693405036950836</v>
+        <v>0.7693405036950693</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.283578335257118</v>
+        <v>2.283578335257062</v>
       </c>
       <c r="C9">
-        <v>0.4670445598898709</v>
+        <v>0.4670445598896151</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6079667059162048</v>
+        <v>0.6079667059161693</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.062238270730262</v>
+        <v>1.062238270730255</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.766691461299501</v>
+        <v>2.766691461299558</v>
       </c>
       <c r="C10">
-        <v>0.5645214004915715</v>
+        <v>0.564521400491401</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3866197627762347</v>
+        <v>0.3866197627763128</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>3.741504539739054</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7369834690172041</v>
+        <v>0.7369834690172112</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>2.993671369029812</v>
       </c>
       <c r="C11">
-        <v>0.6104142960631407</v>
+        <v>0.6104142960633681</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4185916594705361</v>
+        <v>0.4185916594705574</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.013369002377459</v>
+        <v>4.013369002377516</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7976225978198315</v>
+        <v>0.7976225978198883</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.39754030045404</v>
+        <v>1.397540300454068</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.080869067039032</v>
+        <v>3.080869067038975</v>
       </c>
       <c r="C12">
-        <v>0.6280649209228386</v>
+        <v>0.6280649209222986</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4309292214228009</v>
+        <v>0.4309292214227867</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.118373443676148</v>
+        <v>4.118373443676177</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.82092325484696</v>
+        <v>0.8209232548469672</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.062030413211062</v>
+        <v>3.062030413211176</v>
       </c>
       <c r="C13">
-        <v>0.6242505760153847</v>
+        <v>0.6242505760152142</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4282611899068485</v>
+        <v>0.4282611899067206</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>4.095661797416341</v>
+        <v>4.095661797416255</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8158889917898691</v>
+        <v>0.8158889917898904</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.429972803503389</v>
+        <v>1.429972803503375</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.000818903435686</v>
+        <v>3.000818903436084</v>
       </c>
       <c r="C14">
-        <v>0.6118606621085121</v>
+        <v>0.6118606621087963</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4196018211853954</v>
+        <v>0.4196018211854096</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.02196457276122</v>
+        <v>4.021964572761163</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7995324202213965</v>
+        <v>0.7995324202214036</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.963494024433658</v>
+        <v>2.963494024433601</v>
       </c>
       <c r="C15">
-        <v>0.6043084985840608</v>
+        <v>0.6043084985845439</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4143289461264814</v>
+        <v>0.4143289461264672</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>3.977100927974504</v>
+        <v>3.977100927974533</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7895594284099232</v>
+        <v>0.789559428409973</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.38323129253169</v>
+        <v>1.383231292531704</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.752019960485825</v>
+        <v>2.752019960485882</v>
       </c>
       <c r="C16">
-        <v>0.56155739810265</v>
+        <v>0.5615573981022806</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3845603958124357</v>
+        <v>0.3845603958124215</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.724006584128176</v>
+        <v>3.724006584128233</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7330645002438843</v>
+        <v>0.7330645002438985</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.283103938141679</v>
+        <v>1.283103938141707</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.624272443455482</v>
+        <v>2.624272443455254</v>
       </c>
       <c r="C17">
-        <v>0.5357604736541646</v>
+        <v>0.5357604736542214</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.366666842256393</v>
+        <v>0.3666668422562935</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.572043912213161</v>
+        <v>3.572043912213132</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6989440844731547</v>
+        <v>0.6989440844731618</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.222743897033752</v>
+        <v>1.222743897033766</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.551459781215442</v>
+        <v>2.551459781215556</v>
       </c>
       <c r="C18">
-        <v>0.5210653068587305</v>
+        <v>0.5210653068589579</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3564986275817574</v>
+        <v>0.3564986275817077</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
         <v>3.485752434889775</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.188382936223839</v>
+        <v>1.188382936223817</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.526914925199094</v>
+        <v>2.526914925199151</v>
       </c>
       <c r="C19">
-        <v>0.5161128906117369</v>
+        <v>0.5161128906115096</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3530760370450565</v>
+        <v>0.3530760370450352</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>3.456717860775058</v>
+        <v>3.456717860775001</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6729436439852634</v>
+        <v>0.672943643985235</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.176807025299098</v>
+        <v>1.176807025299077</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.637801220613539</v>
+        <v>2.637801220613653</v>
       </c>
       <c r="C20">
-        <v>0.5384915177992582</v>
+        <v>0.5384915177995424</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3685585872671027</v>
+        <v>0.3685585872671169</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.588103192997863</v>
+        <v>3.58810319299775</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7025572962431568</v>
+        <v>0.7025572962431426</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.229131674387318</v>
+        <v>1.22913167438729</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.018762580551822</v>
+        <v>3.018762580551879</v>
       </c>
       <c r="C21">
-        <v>0.6154920664533279</v>
+        <v>0.6154920664535553</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4221387016477607</v>
+        <v>0.4221387016477678</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.043552646995408</v>
+        <v>4.043552646995551</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8043270638268822</v>
+        <v>0.8043270638268964</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.409441585636699</v>
+        <v>1.409441585636671</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.275123888315932</v>
+        <v>3.275123888315704</v>
       </c>
       <c r="C22">
-        <v>0.6674307770419148</v>
+        <v>0.6674307770417727</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8728431497938942</v>
+        <v>0.8728431497938871</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.13754565492809</v>
+        <v>3.137545654927976</v>
       </c>
       <c r="C23">
-        <v>0.63954393009314</v>
+        <v>0.6395439300931116</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.438964525232123</v>
+        <v>0.4389645252321301</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>4.186787344433071</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8360698797764599</v>
+        <v>0.8360698797764243</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.63168291007895</v>
+        <v>2.631682910078609</v>
       </c>
       <c r="C24">
-        <v>0.5372563932582182</v>
+        <v>0.5372563932586729</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3677029613594129</v>
+        <v>0.3677029613593916</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
         <v>3.580839470810133</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7009232360497322</v>
+        <v>0.7009232360497251</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.226242706808605</v>
+        <v>1.22624270680862</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.11083784004876</v>
+        <v>2.110837840048816</v>
       </c>
       <c r="C25">
-        <v>0.4322369155590025</v>
+        <v>0.4322369155592014</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2954593106874412</v>
+        <v>0.2954593106874128</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.968881994480327</v>
+        <v>2.968881994480356</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5618456000316314</v>
+        <v>0.5618456000316172</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9811262862210768</v>
+        <v>0.9811262862210484</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.742285228123166</v>
+        <v>1.742285228123194</v>
       </c>
       <c r="C2">
-        <v>0.3579968986602182</v>
+        <v>0.3579968986602466</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2450984326368371</v>
+        <v>0.2450984326368086</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.544277873710385</v>
+        <v>2.544277873710371</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.499220014625138</v>
+        <v>1.49922001462528</v>
       </c>
       <c r="C3">
-        <v>0.3090079889812216</v>
+        <v>0.3090079889813921</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2122683296485235</v>
+        <v>0.2122683296485306</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.268670039942293</v>
+        <v>2.268670039942307</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3985292062452288</v>
+        <v>0.3985292062452146</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.695484976747629</v>
+        <v>0.6954849767476361</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.352548726907315</v>
+        <v>1.352548726907258</v>
       </c>
       <c r="C4">
-        <v>0.2794142826853232</v>
+        <v>0.27941428268511</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1926205161244923</v>
+        <v>0.1926205161245065</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.104288822391766</v>
+        <v>2.104288822391752</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3593460213165258</v>
+        <v>0.3593460213165329</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.627373514452465</v>
+        <v>0.6273735144524721</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.293328244748011</v>
+        <v>1.293328244748153</v>
       </c>
       <c r="C5">
-        <v>0.2674546710439216</v>
+        <v>0.2674546710436942</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1847247175285389</v>
+        <v>0.1847247175285176</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>2.038366474987228</v>
+        <v>2.038366474987242</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5999190087028623</v>
+        <v>0.5999190087028268</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.283525228996638</v>
+        <v>1.283525228996808</v>
       </c>
       <c r="C6">
         <v>0.2654742268913992</v>
@@ -573,13 +573,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1834198433701602</v>
+        <v>0.1834198433701673</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>2.02748017320998</v>
+        <v>2.027480173209966</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3409014905460097</v>
+        <v>0.3409014905459955</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.351747956903154</v>
+        <v>1.351747956903068</v>
       </c>
       <c r="C7">
-        <v>0.2792526135852285</v>
+        <v>0.2792526135850011</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.19251360361595</v>
+        <v>0.1925136036159927</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.103395654050033</v>
+        <v>2.103395654050047</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3591320589266687</v>
+        <v>0.35913205892669</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6270020973844055</v>
+        <v>0.627002097384441</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.657880868931215</v>
+        <v>1.65788086893096</v>
       </c>
       <c r="C8">
         <v>0.3409907058074282</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2336617441064917</v>
+        <v>0.2336617441064632</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4409035816865696</v>
+        <v>0.4409035816865483</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7693405036950693</v>
+        <v>0.7693405036950836</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.283578335257062</v>
+        <v>2.283578335257118</v>
       </c>
       <c r="C9">
-        <v>0.4670445598896151</v>
+        <v>0.4670445598898709</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6079667059161693</v>
+        <v>0.6079667059162048</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.062238270730255</v>
+        <v>1.062238270730262</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.766691461299558</v>
+        <v>2.766691461299501</v>
       </c>
       <c r="C10">
-        <v>0.564521400491401</v>
+        <v>0.5645214004915715</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3866197627763128</v>
+        <v>0.3866197627762347</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>3.741504539739054</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7369834690172112</v>
+        <v>0.7369834690172041</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>2.993671369029812</v>
       </c>
       <c r="C11">
-        <v>0.6104142960633681</v>
+        <v>0.6104142960631407</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4185916594705574</v>
+        <v>0.4185916594705361</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.013369002377516</v>
+        <v>4.013369002377459</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7976225978198883</v>
+        <v>0.7976225978198315</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.397540300454068</v>
+        <v>1.39754030045404</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.080869067038975</v>
+        <v>3.080869067039032</v>
       </c>
       <c r="C12">
-        <v>0.6280649209222986</v>
+        <v>0.6280649209228386</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4309292214227867</v>
+        <v>0.4309292214228009</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.118373443676177</v>
+        <v>4.118373443676148</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8209232548469672</v>
+        <v>0.82092325484696</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.062030413211176</v>
+        <v>3.062030413211062</v>
       </c>
       <c r="C13">
-        <v>0.6242505760152142</v>
+        <v>0.6242505760153847</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4282611899067206</v>
+        <v>0.4282611899068485</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.095661797416255</v>
+        <v>4.095661797416341</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8158889917898904</v>
+        <v>0.8158889917898691</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.429972803503375</v>
+        <v>1.429972803503389</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.000818903436084</v>
+        <v>3.000818903435686</v>
       </c>
       <c r="C14">
-        <v>0.6118606621087963</v>
+        <v>0.6118606621085121</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4196018211854096</v>
+        <v>0.4196018211853954</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.021964572761163</v>
+        <v>4.02196457276122</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7995324202214036</v>
+        <v>0.7995324202213965</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.963494024433601</v>
+        <v>2.963494024433658</v>
       </c>
       <c r="C15">
-        <v>0.6043084985845439</v>
+        <v>0.6043084985840608</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4143289461264672</v>
+        <v>0.4143289461264814</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>3.977100927974533</v>
+        <v>3.977100927974504</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.789559428409973</v>
+        <v>0.7895594284099232</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.383231292531704</v>
+        <v>1.38323129253169</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.752019960485882</v>
+        <v>2.752019960485825</v>
       </c>
       <c r="C16">
-        <v>0.5615573981022806</v>
+        <v>0.56155739810265</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3845603958124215</v>
+        <v>0.3845603958124357</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.724006584128233</v>
+        <v>3.724006584128176</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7330645002438985</v>
+        <v>0.7330645002438843</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.283103938141707</v>
+        <v>1.283103938141679</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.624272443455254</v>
+        <v>2.624272443455482</v>
       </c>
       <c r="C17">
-        <v>0.5357604736542214</v>
+        <v>0.5357604736541646</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3666668422562935</v>
+        <v>0.366666842256393</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.572043912213132</v>
+        <v>3.572043912213161</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6989440844731618</v>
+        <v>0.6989440844731547</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.222743897033766</v>
+        <v>1.222743897033752</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.551459781215556</v>
+        <v>2.551459781215442</v>
       </c>
       <c r="C18">
-        <v>0.5210653068589579</v>
+        <v>0.5210653068587305</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3564986275817077</v>
+        <v>0.3564986275817574</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
         <v>3.485752434889775</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.188382936223817</v>
+        <v>1.188382936223839</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.526914925199151</v>
+        <v>2.526914925199094</v>
       </c>
       <c r="C19">
-        <v>0.5161128906115096</v>
+        <v>0.5161128906117369</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3530760370450352</v>
+        <v>0.3530760370450565</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>3.456717860775001</v>
+        <v>3.456717860775058</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.672943643985235</v>
+        <v>0.6729436439852634</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.176807025299077</v>
+        <v>1.176807025299098</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.637801220613653</v>
+        <v>2.637801220613539</v>
       </c>
       <c r="C20">
-        <v>0.5384915177995424</v>
+        <v>0.5384915177992582</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3685585872671169</v>
+        <v>0.3685585872671027</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.58810319299775</v>
+        <v>3.588103192997863</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7025572962431426</v>
+        <v>0.7025572962431568</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.22913167438729</v>
+        <v>1.229131674387318</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.018762580551879</v>
+        <v>3.018762580551822</v>
       </c>
       <c r="C21">
-        <v>0.6154920664535553</v>
+        <v>0.6154920664533279</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4221387016477678</v>
+        <v>0.4221387016477607</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.043552646995551</v>
+        <v>4.043552646995408</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8043270638268964</v>
+        <v>0.8043270638268822</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.409441585636671</v>
+        <v>1.409441585636699</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.275123888315704</v>
+        <v>3.275123888315932</v>
       </c>
       <c r="C22">
-        <v>0.6674307770417727</v>
+        <v>0.6674307770419148</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8728431497938871</v>
+        <v>0.8728431497938942</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.137545654927976</v>
+        <v>3.13754565492809</v>
       </c>
       <c r="C23">
-        <v>0.6395439300931116</v>
+        <v>0.63954393009314</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4389645252321301</v>
+        <v>0.438964525232123</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
         <v>4.186787344433071</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8360698797764243</v>
+        <v>0.8360698797764599</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.631682910078609</v>
+        <v>2.63168291007895</v>
       </c>
       <c r="C24">
-        <v>0.5372563932586729</v>
+        <v>0.5372563932582182</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3677029613593916</v>
+        <v>0.3677029613594129</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>3.580839470810133</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7009232360497251</v>
+        <v>0.7009232360497322</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.22624270680862</v>
+        <v>1.226242706808605</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.110837840048816</v>
+        <v>2.11083784004876</v>
       </c>
       <c r="C25">
-        <v>0.4322369155592014</v>
+        <v>0.4322369155590025</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2954593106874128</v>
+        <v>0.2954593106874412</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.968881994480356</v>
+        <v>2.968881994480327</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5618456000316172</v>
+        <v>0.5618456000316314</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9811262862210484</v>
+        <v>0.9811262862210768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.742285228123194</v>
+        <v>1.742164793198867</v>
       </c>
       <c r="C2">
-        <v>0.3579968986602466</v>
+        <v>0.3579341955357904</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2450984326368086</v>
+        <v>0.2450897496078781</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.544277873710371</v>
+        <v>0.8140227948619128</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.720212874115248</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4634424314444772</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4634005514868562</v>
       </c>
       <c r="L2">
-        <v>0.8087017716183098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.8086665322008457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.49922001462528</v>
+        <v>1.499156122052597</v>
       </c>
       <c r="C3">
-        <v>0.3090079889813921</v>
+        <v>0.3089716974676264</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2122683296485306</v>
+        <v>0.2122629452374341</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.268670039942307</v>
+        <v>0.7200092282386237</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.540439051197851</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3985292062452146</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.398506280886842</v>
       </c>
       <c r="L3">
-        <v>0.6954849767476361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.6954667475073464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.352548726907258</v>
+        <v>1.352512582884401</v>
       </c>
       <c r="C4">
-        <v>0.27941428268511</v>
+        <v>0.2793923220423693</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1926205161245065</v>
+        <v>0.1926170825377156</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.104288822391752</v>
+        <v>0.6638703765912481</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.433296057070621</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3593460213165329</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3593327187937021</v>
       </c>
       <c r="L4">
-        <v>0.6273735144524721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6273633960991845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.293328244748153</v>
+        <v>1.293301891614931</v>
       </c>
       <c r="C5">
-        <v>0.2674546710436942</v>
+        <v>0.2674381458249542</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1847247175285176</v>
+        <v>0.1847220714430264</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>2.038366474987242</v>
+        <v>0.6413404780390408</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.390347877520185</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3435212870702813</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.343511468396386</v>
       </c>
       <c r="L5">
-        <v>0.5999190087028268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.5999116962520361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.283525228996808</v>
+        <v>1.283500416347579</v>
       </c>
       <c r="C6">
-        <v>0.2654742268913992</v>
+        <v>0.2654585816651576</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1834198433701673</v>
+        <v>0.1834173278845199</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>2.027480173209966</v>
+        <v>0.6376189491525679</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.383256674029354</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3409014905459955</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3408922257987257</v>
       </c>
       <c r="L6">
-        <v>0.5953770011401716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.5953701267760962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.351747956903068</v>
+        <v>1.351711950775524</v>
       </c>
       <c r="C7">
-        <v>0.2792526135850011</v>
+        <v>0.2792307277980655</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1925136036159927</v>
+        <v>0.1925101806667016</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.103395654050047</v>
+        <v>0.6635651898502317</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.432714081047322</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.35913205892669</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3591188050745657</v>
       </c>
       <c r="L7">
-        <v>0.627002097384441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6269920187875897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.65788086893096</v>
+        <v>1.657781527666401</v>
       </c>
       <c r="C8">
-        <v>0.3409907058074282</v>
+        <v>0.3409375456506041</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2336617441064632</v>
+        <v>0.2336542214491644</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.448146184595259</v>
+        <v>0.7812451695534861</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.657490881917838</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4409035816865483</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4408687001031879</v>
       </c>
       <c r="L8">
-        <v>0.7693405036950836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.7693116703290315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.283578335257118</v>
+        <v>2.283287017184819</v>
       </c>
       <c r="C9">
-        <v>0.4670445598898709</v>
+        <v>0.4669114200627007</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3192858991962453</v>
+        <v>0.3192690869242796</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.170389672893236</v>
+        <v>1.027208860542643</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.129080918458669</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6079667059162048</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.607869753480017</v>
       </c>
       <c r="L9">
-        <v>1.062238270730262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.062149426258337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.766691461299501</v>
+        <v>2.766196731233208</v>
       </c>
       <c r="C10">
-        <v>0.5645214004915715</v>
+        <v>0.5643119333318793</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3866197627762347</v>
+        <v>0.3865941291683654</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>3.741504539739054</v>
+        <v>1.221326102787941</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.502441676666052</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7369834690172041</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7368227503437907</v>
       </c>
       <c r="L10">
-        <v>1.290042207368472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.289886984202084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.993671369029812</v>
+        <v>2.993064498061187</v>
       </c>
       <c r="C11">
-        <v>0.6104142960631407</v>
+        <v>0.6101645141511938</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4185916594705361</v>
+        <v>0.4185611776879128</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.013369002377459</v>
+        <v>1.313642407019358</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.680273477583142</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7976225978198315</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.7974271495254683</v>
       </c>
       <c r="L11">
-        <v>1.39754030045404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.397347636965094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.080869067039032</v>
+        <v>3.08021626501386</v>
       </c>
       <c r="C12">
-        <v>0.6280649209228386</v>
+        <v>0.6277988796181262</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4309292214228009</v>
+        <v>0.4308967367173935</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.118373443676148</v>
+        <v>1.34928529323625</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.748974121428773</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.82092325484696</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8207136431586051</v>
       </c>
       <c r="L12">
-        <v>1.438915329482171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.43870718461622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.062030413211062</v>
+        <v>3.061387669235103</v>
       </c>
       <c r="C13">
-        <v>0.6242505760153847</v>
+        <v>0.6239880840823275</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4282611899068485</v>
+        <v>0.428229144893379</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.095661797416341</v>
+        <v>1.341576607298464</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.734114024647084</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8158889917898691</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8156824789167345</v>
       </c>
       <c r="L13">
-        <v>1.429972803503389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.429768055652985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.000818903435686</v>
+        <v>3.000208327361463</v>
       </c>
       <c r="C14">
-        <v>0.6118606621085121</v>
+        <v>0.6116095636581349</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4196018211853954</v>
+        <v>0.419571178287093</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.02196457276122</v>
+        <v>1.316560367952974</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.685896946340222</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7995324202213965</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.799335828211504</v>
       </c>
       <c r="L14">
-        <v>1.400930161247231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.400736251944764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.963494024433658</v>
+        <v>2.96290267919187</v>
       </c>
       <c r="C15">
-        <v>0.6043084985840608</v>
+        <v>0.60406424334235</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4143289461264814</v>
+        <v>0.4142991386845338</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>3.977100927974504</v>
+        <v>1.301329856254483</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.656546474368866</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7895594284099232</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7893687750965128</v>
       </c>
       <c r="L15">
-        <v>1.38323129253169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.383043843561268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.752019960485825</v>
+        <v>2.751532112410644</v>
       </c>
       <c r="C16">
-        <v>0.56155739810265</v>
+        <v>0.5613504378204937</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3845603958124357</v>
+        <v>0.3845350585276677</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.724006584128176</v>
+        <v>1.215382583812811</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.490997994151769</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7330645002438843</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7329059208243649</v>
       </c>
       <c r="L16">
-        <v>1.283103938141679</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.282950994998302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.624272443455482</v>
+        <v>2.623842647676042</v>
       </c>
       <c r="C17">
-        <v>0.5357604736541646</v>
+        <v>0.5355748378808869</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.366666842256393</v>
+        <v>0.3666440039941889</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.572043912213161</v>
+        <v>1.163755843190529</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.391625532156809</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6989440844731547</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.698803593394338</v>
       </c>
       <c r="L17">
-        <v>1.222743897033752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.222610098712764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.551459781215442</v>
+        <v>2.551061575865788</v>
       </c>
       <c r="C18">
-        <v>0.5210653068587305</v>
+        <v>0.5208914233109851</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3564986275817574</v>
+        <v>0.3564771515540386</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.485752434889775</v>
+        <v>1.134431734388016</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.335206639273395</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6794984043751455</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6793677920685326</v>
       </c>
       <c r="L18">
-        <v>1.188382936223839</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.188259486423618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.526914925199094</v>
+        <v>2.526527124228096</v>
       </c>
       <c r="C19">
-        <v>0.5161128906117369</v>
+        <v>0.5159429031663478</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3530760370450565</v>
+        <v>0.353055010559963</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>3.456717860775058</v>
+        <v>1.124563657189867</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.316224927047898</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6729436439852634</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6728162913922802</v>
       </c>
       <c r="L19">
-        <v>1.176807025299098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.176686972468012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.637801220613539</v>
+        <v>2.637365435576498</v>
       </c>
       <c r="C20">
-        <v>0.5384915177992582</v>
+        <v>0.538303666338436</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3685585872671027</v>
+        <v>0.3685354910536844</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.588103192997863</v>
+        <v>1.169212551488016</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.402126143970463</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7025572962431568</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7024149352253772</v>
       </c>
       <c r="L20">
-        <v>1.229131674387318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.228995908398403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.018762580551822</v>
+        <v>3.01814265590491</v>
       </c>
       <c r="C21">
-        <v>0.6154920664533279</v>
+        <v>0.6152376501229355</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4221387016477607</v>
+        <v>0.4221076518905988</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.043552646995408</v>
+        <v>1.323888717268375</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.700020726370099</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8043270638268822</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8041275870010693</v>
       </c>
       <c r="L21">
-        <v>1.409441585636699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.409244530566795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.275123888315932</v>
+        <v>3.274363006141414</v>
       </c>
       <c r="C22">
-        <v>0.6674307770419148</v>
+        <v>0.6671269487274287</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4585220769841811</v>
+        <v>0.4584848228309184</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>4.353382150427706</v>
+        <v>1.4290324693076</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.902759925379229</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8728431497938942</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.8726003253896693</v>
       </c>
       <c r="L22">
-        <v>1.531242760519447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.530997881057061</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.13754565492809</v>
+        <v>3.136862143190342</v>
       </c>
       <c r="C23">
-        <v>0.63954393009314</v>
+        <v>0.6392670881888307</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.438964525232123</v>
+        <v>0.4389306939315958</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>4.186787344433071</v>
+        <v>1.372504097976702</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.793739147124057</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8360698797764599</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8358508155199758</v>
       </c>
       <c r="L23">
-        <v>1.465831235407236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.46561269535249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.63168291007895</v>
+        <v>2.631249838296924</v>
       </c>
       <c r="C24">
-        <v>0.5372563932582182</v>
+        <v>0.5370695450770313</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3677029613594129</v>
+        <v>0.3676799819944776</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>3.580839470810133</v>
+        <v>1.166744470259459</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.397376616209925</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7009232360497322</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7007817220386769</v>
       </c>
       <c r="L24">
-        <v>1.226242706808605</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.226107832433257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.11083784004876</v>
+        <v>2.110607653690579</v>
       </c>
       <c r="C25">
-        <v>0.4322369155590025</v>
+        <v>0.4321279814419086</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2954593106874412</v>
+        <v>0.295445252897423</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.968881994480327</v>
+        <v>0.9586467351415422</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.997431614278838</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5618456000316314</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5617681140675117</v>
       </c>
       <c r="L25">
-        <v>0.9811262862210768</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.981056904261763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.742164793198867</v>
+        <v>2.546051016800902</v>
       </c>
       <c r="C2">
-        <v>0.3579341955357904</v>
+        <v>0.6086030773130346</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2450897496078781</v>
+        <v>0.08305607546970251</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.458120469113325</v>
       </c>
       <c r="G2">
-        <v>0.8140227948619128</v>
+        <v>0.0007926943537413253</v>
       </c>
       <c r="H2">
-        <v>1.720212874115248</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06483985228159028</v>
       </c>
       <c r="K2">
-        <v>0.4634005514868562</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8086665322008457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.6968068290374916</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.51410416525836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.499156122052597</v>
+        <v>2.196399455076971</v>
       </c>
       <c r="C3">
-        <v>0.3089716974676264</v>
+        <v>0.5257464099729532</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2122629452374341</v>
+        <v>0.07794257109974723</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>2.235714118133032</v>
       </c>
       <c r="G3">
-        <v>0.7200092282386237</v>
+        <v>0.0008011502584864121</v>
       </c>
       <c r="H3">
-        <v>1.540439051197851</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0634955690282446</v>
       </c>
       <c r="K3">
-        <v>0.398506280886842</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6954667475073464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.6052750639278699</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.375131246711334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.352512582884401</v>
+        <v>1.984729157537458</v>
       </c>
       <c r="C4">
-        <v>0.2793923220423693</v>
+        <v>0.4754924226047592</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1926170825377156</v>
+        <v>0.07486086625091204</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>2.10410156317451</v>
       </c>
       <c r="G4">
-        <v>0.6638703765912481</v>
+        <v>0.000806470595825105</v>
       </c>
       <c r="H4">
-        <v>1.433296057070621</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.06284063074339485</v>
       </c>
       <c r="K4">
-        <v>0.3593327187937021</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6273633960991845</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.5498236656079527</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.293549864918532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.293301891614931</v>
+        <v>1.899115069720892</v>
       </c>
       <c r="C5">
-        <v>0.2674381458249542</v>
+        <v>0.4551415485862265</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1847220714430264</v>
+        <v>0.07361907551397096</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>2.051594631861491</v>
       </c>
       <c r="G5">
-        <v>0.6413404780390408</v>
+        <v>0.0008086726999877313</v>
       </c>
       <c r="H5">
-        <v>1.390347877520185</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.06261299126653697</v>
       </c>
       <c r="K5">
-        <v>0.343511468396386</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5999116962520361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5273899698628171</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.261152707503868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.283500416347579</v>
+        <v>1.884934585561382</v>
       </c>
       <c r="C6">
-        <v>0.2654585816651576</v>
+        <v>0.4517692654079326</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1834173278845199</v>
+        <v>0.07341370932087798</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>2.042940665047396</v>
       </c>
       <c r="G6">
-        <v>0.6376189491525679</v>
+        <v>0.0008090404608823292</v>
       </c>
       <c r="H6">
-        <v>1.383256674029354</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.06257746314296853</v>
       </c>
       <c r="K6">
-        <v>0.3408922257987257</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5953701267760962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5236740312458323</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.255821777156953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.351711950775524</v>
+        <v>1.983572076588246</v>
       </c>
       <c r="C7">
-        <v>0.2792307277980655</v>
+        <v>0.4752174802912918</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1925101806667016</v>
+        <v>0.07484406291492363</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>2.103389024476556</v>
       </c>
       <c r="G7">
-        <v>0.6635651898502317</v>
+        <v>0.0008065001541449317</v>
       </c>
       <c r="H7">
-        <v>1.432714081047322</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.06283740632323642</v>
       </c>
       <c r="K7">
-        <v>0.3591188050745657</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6269920187875897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5495204879634983</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.29310963174045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.657781527666401</v>
+        <v>2.424792104061282</v>
       </c>
       <c r="C8">
-        <v>0.3409375456506041</v>
+        <v>0.5798876706628562</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2336542214491644</v>
+        <v>0.08128054247666228</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>2.380334452043854</v>
       </c>
       <c r="G8">
-        <v>0.7812451695534861</v>
+        <v>0.0007955843997734725</v>
       </c>
       <c r="H8">
-        <v>1.657490881917838</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0643386891084532</v>
       </c>
       <c r="K8">
-        <v>0.4408687001031879</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7693116703290315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.6650751911656698</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.465348706432508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.283287017184819</v>
+        <v>3.319793300232789</v>
       </c>
       <c r="C9">
-        <v>0.4669114200627007</v>
+        <v>0.7914862558001516</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3192690869242796</v>
+        <v>0.09439212679177089</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>2.968533390566563</v>
       </c>
       <c r="G9">
-        <v>1.027208860542643</v>
+        <v>0.0007751101576850165</v>
       </c>
       <c r="H9">
-        <v>2.129080918458669</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.06881678349967046</v>
       </c>
       <c r="K9">
-        <v>0.607869753480017</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.062149426258337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.8988986901487479</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1.837596148605769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.766196731233208</v>
+        <v>4.004711653632171</v>
       </c>
       <c r="C10">
-        <v>0.5643119333318793</v>
+        <v>0.9530666717500367</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3865941291683654</v>
+        <v>0.1043716651204285</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>3.437353945243188</v>
       </c>
       <c r="G10">
-        <v>1.221326102787941</v>
+        <v>0.0007604993202750701</v>
       </c>
       <c r="H10">
-        <v>2.502441676666052</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07332886990315757</v>
       </c>
       <c r="K10">
-        <v>0.7368227503437907</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.289886984202084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.077098012965784</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.139557819863867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.993064498061187</v>
+        <v>4.324643737002816</v>
       </c>
       <c r="C11">
-        <v>0.6101645141511938</v>
+        <v>1.028494938717301</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4185611776879128</v>
+        <v>0.1089994918725061</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>3.660962304086581</v>
       </c>
       <c r="G11">
-        <v>1.313642407019358</v>
+        <v>0.000753911002131549</v>
       </c>
       <c r="H11">
-        <v>2.680273477583142</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07572235329961075</v>
       </c>
       <c r="K11">
-        <v>0.7974271495254683</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.397347636965094</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.160077029490012</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.285047330966407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.08021626501386</v>
+        <v>4.447229166505679</v>
       </c>
       <c r="C12">
-        <v>0.6277988796181262</v>
+        <v>1.057392332971375</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4308967367173935</v>
+        <v>0.1107658050179054</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>3.747352199508498</v>
       </c>
       <c r="G12">
-        <v>1.34928529323625</v>
+        <v>0.0007514211596699796</v>
       </c>
       <c r="H12">
-        <v>2.748974121428773</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07668516244638113</v>
       </c>
       <c r="K12">
-        <v>0.8207136431586051</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.43870718461622</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.191824456653066</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.3414973600933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.061387669235103</v>
+        <v>4.420760366780087</v>
       </c>
       <c r="C13">
-        <v>0.6239880840823275</v>
+        <v>1.051152882519034</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.428229144893379</v>
+        <v>0.1103847608959256</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>3.72866639211091</v>
       </c>
       <c r="G13">
-        <v>1.341576607298464</v>
+        <v>0.0007519572274736274</v>
       </c>
       <c r="H13">
-        <v>2.734114024647084</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.07647516336698601</v>
       </c>
       <c r="K13">
-        <v>0.8156824789167345</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.429768055652985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.18497175862133</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.329276234732006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.000208327361463</v>
+        <v>4.334698725193107</v>
       </c>
       <c r="C14">
-        <v>0.6116095636581349</v>
+        <v>1.030865283474753</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.419571178287093</v>
+        <v>0.1091445224182728</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>3.66803388309097</v>
       </c>
       <c r="G14">
-        <v>1.316560367952974</v>
+        <v>0.0007537060817407504</v>
       </c>
       <c r="H14">
-        <v>2.685896946340222</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.07580038633496144</v>
       </c>
       <c r="K14">
-        <v>0.799335828211504</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.400736251944764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.1626820858136</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.28966315499413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.96290267919187</v>
+        <v>4.282177695894177</v>
       </c>
       <c r="C15">
-        <v>0.60406424334235</v>
+        <v>1.018483939755839</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4142991386845338</v>
+        <v>0.1083866831037845</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>3.631125244322902</v>
       </c>
       <c r="G15">
-        <v>1.301329856254483</v>
+        <v>0.0007547778503721259</v>
       </c>
       <c r="H15">
-        <v>2.656546474368866</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.07539465663228384</v>
       </c>
       <c r="K15">
-        <v>0.7893687750965128</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.383043843561268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.149072940889944</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.265581660224242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.751532112410644</v>
+        <v>3.983990652169609</v>
       </c>
       <c r="C16">
-        <v>0.5613504378204937</v>
+        <v>0.9481807187703168</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3845350585276677</v>
+        <v>0.1040710961585667</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>3.422967429958931</v>
       </c>
       <c r="G16">
-        <v>1.215382583812811</v>
+        <v>0.0007609307770786895</v>
       </c>
       <c r="H16">
-        <v>2.490997994151769</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.07317992029432929</v>
       </c>
       <c r="K16">
-        <v>0.7329059208243649</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.282950994998302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.071717774408512</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.130228714897854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.623842647676042</v>
+        <v>3.803358719747962</v>
       </c>
       <c r="C17">
-        <v>0.5355748378808869</v>
+        <v>0.9055833104686428</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3666440039941889</v>
+        <v>0.10144697913546</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>3.298070097597133</v>
       </c>
       <c r="G17">
-        <v>1.163755843190529</v>
+        <v>0.0007647180585036749</v>
       </c>
       <c r="H17">
-        <v>2.391625532156809</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.07191351629519005</v>
       </c>
       <c r="K17">
-        <v>0.698803593394338</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.222610098712764</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.024786726997391</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.049400889092979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.551061575865788</v>
+        <v>3.700235163096693</v>
       </c>
       <c r="C18">
-        <v>0.5208914233109851</v>
+        <v>0.881259649903825</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3564771515540386</v>
+        <v>0.09994586702403652</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>3.227190389469968</v>
       </c>
       <c r="G18">
-        <v>1.134431734388016</v>
+        <v>0.0007669021091721885</v>
       </c>
       <c r="H18">
-        <v>2.335206639273395</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.07121669872253378</v>
       </c>
       <c r="K18">
-        <v>0.6793677920685326</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.188259486423618</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9979701650372164</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.003663016406819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.526527124228096</v>
+        <v>3.665445192308084</v>
       </c>
       <c r="C19">
-        <v>0.5159429031663478</v>
+        <v>0.8730528959059143</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.353055010559963</v>
+        <v>0.09943899284344582</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>3.203349817048377</v>
       </c>
       <c r="G19">
-        <v>1.124563657189867</v>
+        <v>0.0007676426664206983</v>
       </c>
       <c r="H19">
-        <v>2.316224927047898</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.07098598407117507</v>
       </c>
       <c r="K19">
-        <v>0.6728162913922802</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.176686972468012</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9889195193248597</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1.988300834468788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.637365435576498</v>
+        <v>3.82250590764221</v>
       </c>
       <c r="C20">
-        <v>0.538303666338436</v>
+        <v>0.9100991425854374</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3685354910536844</v>
+        <v>0.1017254630163826</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>3.311264937490478</v>
       </c>
       <c r="G20">
-        <v>1.169212551488016</v>
+        <v>0.0007643143281977054</v>
       </c>
       <c r="H20">
-        <v>2.402126143970463</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.07204500794822621</v>
       </c>
       <c r="K20">
-        <v>0.7024149352253772</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.228995908398403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.029763966204563</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.057926025790451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.01814265590491</v>
+        <v>4.359936180246109</v>
       </c>
       <c r="C21">
-        <v>0.6152376501229355</v>
+        <v>1.036814667405253</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4221076518905988</v>
+        <v>0.1095084241701088</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>3.685794629389108</v>
       </c>
       <c r="G21">
-        <v>1.323888717268375</v>
+        <v>0.0007531922940806485</v>
       </c>
       <c r="H21">
-        <v>2.700020726370099</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.07599698794353316</v>
       </c>
       <c r="K21">
-        <v>0.8041275870010693</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.409244530566795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.169219851096514</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.301260036793778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.274363006141414</v>
+        <v>4.719669701537953</v>
       </c>
       <c r="C22">
-        <v>0.6671269487274287</v>
+        <v>1.121612623437727</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4584848228309184</v>
+        <v>0.1146764788085903</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>3.940692415063779</v>
       </c>
       <c r="G22">
-        <v>1.4290324693076</v>
+        <v>0.000745950694237617</v>
       </c>
       <c r="H22">
-        <v>2.902759925379229</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07891315891897932</v>
       </c>
       <c r="K22">
-        <v>0.8726003253896693</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.530997881057061</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.262285271497561</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.468305900796878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.136862143190342</v>
+        <v>4.526810517081572</v>
       </c>
       <c r="C23">
-        <v>0.6392670881888307</v>
+        <v>1.076151656404335</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4389306939315958</v>
+        <v>0.1119103007489102</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>3.803639085008655</v>
       </c>
       <c r="G23">
-        <v>1.372504097976702</v>
+        <v>0.000749814411947991</v>
       </c>
       <c r="H23">
-        <v>2.793739147124057</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.07732348748017159</v>
       </c>
       <c r="K23">
-        <v>0.8358508155199758</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.46561269535249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.212420319700101</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.378347889314767</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.631249838296924</v>
+        <v>3.813847225535028</v>
       </c>
       <c r="C24">
-        <v>0.5370695450770313</v>
+        <v>0.9080570215820387</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3676799819944776</v>
+        <v>0.1015995370939216</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>3.305296684650983</v>
       </c>
       <c r="G24">
-        <v>1.166744470259459</v>
+        <v>0.0007644968334883373</v>
       </c>
       <c r="H24">
-        <v>2.397376616209925</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07198546376631754</v>
       </c>
       <c r="K24">
-        <v>0.7007817220386769</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.226107832433257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.027513246950114</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.054069548060824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.110607653690579</v>
+        <v>3.073600761530827</v>
       </c>
       <c r="C25">
-        <v>0.4321279814419086</v>
+        <v>0.7333488636134007</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.295445252897423</v>
+        <v>0.09078809562318924</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>2.803696880218951</v>
       </c>
       <c r="G25">
-        <v>0.9586467351415422</v>
+        <v>0.0007805623947572159</v>
       </c>
       <c r="H25">
-        <v>1.997431614278838</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.06741367885060612</v>
       </c>
       <c r="K25">
-        <v>0.5617681140675117</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.981056904261763</v>
+        <v>0.8346770483406658</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.732485736974652</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.546051016800902</v>
+        <v>0.7952095278539559</v>
       </c>
       <c r="C2">
-        <v>0.6086030773130346</v>
+        <v>0.1691544619689012</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08305607546970251</v>
+        <v>0.006092280592681076</v>
       </c>
       <c r="F2">
-        <v>2.458120469113325</v>
+        <v>3.061997677643944</v>
       </c>
       <c r="G2">
-        <v>0.0007926943537413253</v>
+        <v>0.0008742276961092142</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.321527348073161</v>
       </c>
       <c r="J2">
-        <v>0.06483985228159028</v>
+        <v>0.2014086764234015</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9273423069275282</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09564332058348413</v>
       </c>
       <c r="M2">
-        <v>0.6968068290374916</v>
+        <v>0.1610350830459168</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.51410416525836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.196399455076971</v>
+        <v>0.6998465125901419</v>
       </c>
       <c r="C3">
-        <v>0.5257464099729532</v>
+        <v>0.1464887230697798</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07794257109974723</v>
+        <v>0.006196087812498918</v>
       </c>
       <c r="F3">
-        <v>2.235714118133032</v>
+        <v>2.876730573983522</v>
       </c>
       <c r="G3">
-        <v>0.0008011502584864121</v>
+        <v>0.0008812194523266632</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.205629966269242</v>
       </c>
       <c r="J3">
-        <v>0.0634955690282446</v>
+        <v>0.1998081967315848</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.812177938724119</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08775751010551858</v>
       </c>
       <c r="M3">
-        <v>0.6052750639278699</v>
+        <v>0.1432309343674945</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.375131246711334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.984729157537458</v>
+        <v>0.6424571468030535</v>
       </c>
       <c r="C4">
-        <v>0.4754924226047592</v>
+        <v>0.1327957443327108</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07486086625091204</v>
+        <v>0.006271265657150638</v>
       </c>
       <c r="F4">
-        <v>2.10410156317451</v>
+        <v>2.766063249989216</v>
       </c>
       <c r="G4">
-        <v>0.000806470595825105</v>
+        <v>0.0008856398566205811</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.136400138150492</v>
       </c>
       <c r="J4">
-        <v>0.06284063074339485</v>
+        <v>0.1988358617761179</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7427824972102144</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08307176315338438</v>
       </c>
       <c r="M4">
-        <v>0.5498236656079527</v>
+        <v>0.1325448603865631</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.293549864918532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.899115069720892</v>
+        <v>0.6193366409639225</v>
       </c>
       <c r="C5">
-        <v>0.4551415485862265</v>
+        <v>0.1272646023442405</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07361907551397096</v>
+        <v>0.006304770384523151</v>
       </c>
       <c r="F5">
-        <v>2.051594631861491</v>
+        <v>2.721684815708301</v>
       </c>
       <c r="G5">
-        <v>0.0008086726999877313</v>
+        <v>0.0008874742274929525</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.108636902408946</v>
       </c>
       <c r="J5">
-        <v>0.06261299126653697</v>
+        <v>0.19844166842908</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7148006806731075</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.08119954280459041</v>
       </c>
       <c r="M5">
-        <v>0.5273899698628171</v>
+        <v>0.1282471680291444</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.261152707503868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.884934585561382</v>
+        <v>0.6155128303693687</v>
       </c>
       <c r="C6">
-        <v>0.4517692654079326</v>
+        <v>0.1263489039015013</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07341370932087798</v>
+        <v>0.006310506981018094</v>
       </c>
       <c r="F6">
-        <v>2.042940665047396</v>
+        <v>2.714357664012525</v>
       </c>
       <c r="G6">
-        <v>0.0008090404608823292</v>
+        <v>0.0008877808451179691</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.104052881480229</v>
       </c>
       <c r="J6">
-        <v>0.06257746314296853</v>
+        <v>0.1983763202814508</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7101713469376989</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08089085612751745</v>
       </c>
       <c r="M6">
-        <v>0.5236740312458323</v>
+        <v>0.1275368454230872</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.255821777156953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.983572076588246</v>
+        <v>0.6421442918020261</v>
       </c>
       <c r="C7">
-        <v>0.4752174802912918</v>
+        <v>0.1327209610396807</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07484406291492363</v>
+        <v>0.0062717059028774</v>
       </c>
       <c r="F7">
-        <v>2.103389024476556</v>
+        <v>2.765461906721725</v>
       </c>
       <c r="G7">
-        <v>0.0008065001541449317</v>
+        <v>0.0008856644606265451</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.136023945058412</v>
       </c>
       <c r="J7">
-        <v>0.06283740632323642</v>
+        <v>0.1988305380064972</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7424039631440564</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08304636543442001</v>
       </c>
       <c r="M7">
-        <v>0.5495204879634983</v>
+        <v>0.1324866756768976</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.29310963174045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.424792104061282</v>
+        <v>0.762070203855302</v>
       </c>
       <c r="C8">
-        <v>0.5798876706628562</v>
+        <v>0.1612881981450585</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08128054247666228</v>
+        <v>0.006125692889092926</v>
       </c>
       <c r="F8">
-        <v>2.380334452043854</v>
+        <v>2.997441291396825</v>
       </c>
       <c r="G8">
-        <v>0.0007955843997734725</v>
+        <v>0.0008766126100865861</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.281141816288041</v>
       </c>
       <c r="J8">
-        <v>0.0643386891084532</v>
+        <v>0.2008543283411903</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8873395653087641</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09289062466653775</v>
       </c>
       <c r="M8">
-        <v>0.6650751911656698</v>
+        <v>0.1548421951048944</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.465348706432508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.319793300232789</v>
+        <v>1.007787852642792</v>
       </c>
       <c r="C9">
-        <v>0.7914862558001516</v>
+        <v>0.2194519271948678</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09439212679177089</v>
+        <v>0.005930780162878513</v>
       </c>
       <c r="F9">
-        <v>2.968533390566563</v>
+        <v>3.479638185552261</v>
       </c>
       <c r="G9">
-        <v>0.0007751101576850165</v>
+        <v>0.0008598256502364832</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.58286656597403</v>
       </c>
       <c r="J9">
-        <v>0.06881678349967046</v>
+        <v>0.2049326526352608</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.183650991104741</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1135332145707295</v>
       </c>
       <c r="M9">
-        <v>0.8988986901487479</v>
+        <v>0.2008686978585601</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.837596148605769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.004711653632171</v>
+        <v>1.19674686318092</v>
       </c>
       <c r="C10">
-        <v>0.9530666717500367</v>
+        <v>0.2640553719840284</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1043716651204285</v>
+        <v>0.005844759575172498</v>
       </c>
       <c r="F10">
-        <v>3.437353945243188</v>
+        <v>3.854783160600107</v>
       </c>
       <c r="G10">
-        <v>0.0007604993202750701</v>
+        <v>0.0008480079594748471</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.817768796420197</v>
       </c>
       <c r="J10">
-        <v>0.07332886990315757</v>
+        <v>0.2080372277756624</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.411253380890798</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1296657017868696</v>
       </c>
       <c r="M10">
-        <v>1.077098012965784</v>
+        <v>0.236380926537084</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.139557819863867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.324643737002816</v>
+        <v>1.28503776874021</v>
       </c>
       <c r="C11">
-        <v>1.028494938717301</v>
+        <v>0.2848940692655617</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1089994918725061</v>
+        <v>0.005818546221601384</v>
       </c>
       <c r="F11">
-        <v>3.660962304086581</v>
+        <v>4.031025026190434</v>
       </c>
       <c r="G11">
-        <v>0.000753911002131549</v>
+        <v>0.0008427261756311438</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.928187246471879</v>
       </c>
       <c r="J11">
-        <v>0.07572235329961075</v>
+        <v>0.2094832278362446</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.517576024124054</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1372517143503771</v>
       </c>
       <c r="M11">
-        <v>1.160077029490012</v>
+        <v>0.2529947525138923</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.285047330966407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.447229166505679</v>
+        <v>1.31885276985642</v>
       </c>
       <c r="C12">
-        <v>1.057392332971375</v>
+        <v>0.2928772026079969</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1107658050179054</v>
+        <v>0.005810534846981463</v>
       </c>
       <c r="F12">
-        <v>3.747352199508498</v>
+        <v>4.098662839005215</v>
       </c>
       <c r="G12">
-        <v>0.0007514211596699796</v>
+        <v>0.0008407380318825908</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.970574797387798</v>
       </c>
       <c r="J12">
-        <v>0.07668516244638113</v>
+        <v>0.2100365727317453</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.558296652987025</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1401632873760406</v>
       </c>
       <c r="M12">
-        <v>1.191824456653066</v>
+        <v>0.2593603048976689</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.3414973600933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.420760366780087</v>
+        <v>1.311552373115973</v>
       </c>
       <c r="C13">
-        <v>1.051152882519034</v>
+        <v>0.2911535771907836</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1103847608959256</v>
+        <v>0.005812173996374348</v>
       </c>
       <c r="F13">
-        <v>3.72866639211091</v>
+        <v>4.084054227377294</v>
       </c>
       <c r="G13">
-        <v>0.0007519572274736274</v>
+        <v>0.0008411657094752087</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.961419267381203</v>
       </c>
       <c r="J13">
-        <v>0.07647516336698601</v>
+        <v>0.2099171273591196</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.549505352700521</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1395344403788812</v>
       </c>
       <c r="M13">
-        <v>1.18497175862133</v>
+        <v>0.2579859266099298</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.329276234732006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.334698725193107</v>
+        <v>1.287811831447414</v>
       </c>
       <c r="C14">
-        <v>1.030865283474753</v>
+        <v>0.2855489229355896</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1091445224182728</v>
+        <v>0.005817848359594979</v>
       </c>
       <c r="F14">
-        <v>3.66803388309097</v>
+        <v>4.036571034904625</v>
       </c>
       <c r="G14">
-        <v>0.0007537060817407504</v>
+        <v>0.0008425623799991848</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.931662602072109</v>
       </c>
       <c r="J14">
-        <v>0.07580038633496144</v>
+        <v>0.2095286304522759</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.520916590401839</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1374904509302866</v>
       </c>
       <c r="M14">
-        <v>1.1626820858136</v>
+        <v>0.2535169119760816</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.28966315499413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.282177695894177</v>
+        <v>1.273321139629786</v>
       </c>
       <c r="C15">
-        <v>1.018483939755839</v>
+        <v>0.2821283015168774</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1083866831037845</v>
+        <v>0.00582157541832995</v>
       </c>
       <c r="F15">
-        <v>3.631125244322902</v>
+        <v>4.007606259325854</v>
       </c>
       <c r="G15">
-        <v>0.0007547778503721259</v>
+        <v>0.0008434193877936235</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.91351256091464</v>
       </c>
       <c r="J15">
-        <v>0.07539465663228384</v>
+        <v>0.2092914461870201</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.503466691700396</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1362436213247875</v>
       </c>
       <c r="M15">
-        <v>1.149072940889944</v>
+        <v>0.2507894405018547</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.265581660224242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.983990652169609</v>
+        <v>1.191027584958078</v>
       </c>
       <c r="C16">
-        <v>0.9481807187703168</v>
+        <v>0.2627056377700399</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1040710961585667</v>
+        <v>0.005846737213740294</v>
       </c>
       <c r="F16">
-        <v>3.422967429958931</v>
+        <v>3.843385709562142</v>
       </c>
       <c r="G16">
-        <v>0.0007609307770786895</v>
+        <v>0.0008483548989253171</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.810629538345211</v>
       </c>
       <c r="J16">
-        <v>0.07317992029432929</v>
+        <v>0.2079434839837226</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.404365816692916</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1291751935644214</v>
       </c>
       <c r="M16">
-        <v>1.071717774408512</v>
+        <v>0.235305098167796</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.130228714897854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.803358719747962</v>
+        <v>1.141171664373047</v>
       </c>
       <c r="C17">
-        <v>0.9055833104686428</v>
+        <v>0.2509398069819042</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.10144697913546</v>
+        <v>0.005865518285657512</v>
       </c>
       <c r="F17">
-        <v>3.298070097597133</v>
+        <v>3.744137650814253</v>
       </c>
       <c r="G17">
-        <v>0.0007647180585036749</v>
+        <v>0.0008514057065738776</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.748468595332398</v>
       </c>
       <c r="J17">
-        <v>0.07191351629519005</v>
+        <v>0.2071258203832294</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.34432343093556</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.124904564307144</v>
       </c>
       <c r="M17">
-        <v>1.024786726997391</v>
+        <v>0.2259291556350611</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.049400889092979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.700235163096693</v>
+        <v>1.112712402417799</v>
       </c>
       <c r="C18">
-        <v>0.881259649903825</v>
+        <v>0.2442231624560804</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09994586702403652</v>
+        <v>0.005877532328866009</v>
       </c>
       <c r="F18">
-        <v>3.227190389469968</v>
+        <v>3.687572383232691</v>
       </c>
       <c r="G18">
-        <v>0.0007669021091721885</v>
+        <v>0.0008531694149366619</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.713046285449849</v>
       </c>
       <c r="J18">
-        <v>0.07121669872253378</v>
+        <v>0.2066586345961596</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.310046979262438</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1224712659871656</v>
       </c>
       <c r="M18">
-        <v>0.9979701650372164</v>
+        <v>0.220579038169177</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.003663016406819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.665445192308084</v>
+        <v>1.103112458450767</v>
       </c>
       <c r="C19">
-        <v>0.8730528959059143</v>
+        <v>0.2419573615052855</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09943899284344582</v>
+        <v>0.00588180665662108</v>
       </c>
       <c r="F19">
-        <v>3.203349817048377</v>
+        <v>3.66850683472282</v>
       </c>
       <c r="G19">
-        <v>0.0007676426664206983</v>
+        <v>0.0008537681618244326</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.70110794618563</v>
       </c>
       <c r="J19">
-        <v>0.07098598407117507</v>
+        <v>0.2065009612777828</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.298484259803189</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1216512553710274</v>
       </c>
       <c r="M19">
-        <v>0.9889195193248597</v>
+        <v>0.2187746723898911</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.988300834468788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.82250590764221</v>
+        <v>1.146456184130329</v>
       </c>
       <c r="C20">
-        <v>0.9100991425854374</v>
+        <v>0.2521869567880231</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1017254630163826</v>
+        <v>0.005863393233933589</v>
       </c>
       <c r="F20">
-        <v>3.311264937490478</v>
+        <v>3.754648338003165</v>
       </c>
       <c r="G20">
-        <v>0.0007643143281977054</v>
+        <v>0.0008510800260694961</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.755051040957426</v>
       </c>
       <c r="J20">
-        <v>0.07204500794822621</v>
+        <v>0.2072125334776658</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.350687906719486</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1253567706794314</v>
       </c>
       <c r="M20">
-        <v>1.029763966204563</v>
+        <v>0.2269227668058313</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.057926025790451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.359936180246109</v>
+        <v>1.294774271511585</v>
       </c>
       <c r="C21">
-        <v>1.036814667405253</v>
+        <v>0.2871925379700144</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1095084241701088</v>
+        <v>0.005816129157598438</v>
       </c>
       <c r="F21">
-        <v>3.685794629389108</v>
+        <v>4.050492797136513</v>
       </c>
       <c r="G21">
-        <v>0.0007531922940806485</v>
+        <v>0.0008421518329979284</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.940386735576553</v>
       </c>
       <c r="J21">
-        <v>0.07599698794353316</v>
+        <v>0.2096425768014214</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.529300864894026</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1380897356903716</v>
       </c>
       <c r="M21">
-        <v>1.169219851096514</v>
+        <v>0.2548274848155785</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.301260036793778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.719669701537953</v>
+        <v>1.39395511868176</v>
       </c>
       <c r="C22">
-        <v>1.121612623437727</v>
+        <v>0.3106139495417608</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1146764788085903</v>
+        <v>0.005796439323443536</v>
       </c>
       <c r="F22">
-        <v>3.940692415063779</v>
+        <v>4.249134732311859</v>
       </c>
       <c r="G22">
-        <v>0.000745950694237617</v>
+        <v>0.0008363855656000603</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.064896472845987</v>
       </c>
       <c r="J22">
-        <v>0.07891315891897932</v>
+        <v>0.2112649164170222</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.64873903956854</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.146640084181719</v>
       </c>
       <c r="M22">
-        <v>1.262285271497561</v>
+        <v>0.2735020996061834</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.468305900796878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.526810517081572</v>
+        <v>1.340798504678133</v>
       </c>
       <c r="C23">
-        <v>1.076151656404335</v>
+        <v>0.2980590744523681</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1119103007489102</v>
+        <v>0.005805900468976333</v>
       </c>
       <c r="F23">
-        <v>3.803639085008655</v>
+        <v>4.142597637539808</v>
       </c>
       <c r="G23">
-        <v>0.000749814411947991</v>
+        <v>0.0008394573982529481</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.998111497414101</v>
       </c>
       <c r="J23">
-        <v>0.07732348748017159</v>
+        <v>0.2103955860348563</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.584724380262372</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1420544887308708</v>
       </c>
       <c r="M23">
-        <v>1.212420319700101</v>
+        <v>0.2634921525288263</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.378347889314767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.813847225535028</v>
+        <v>1.144066422068505</v>
       </c>
       <c r="C24">
-        <v>0.9080570215820387</v>
+        <v>0.251622972795559</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1015995370939216</v>
+        <v>0.005864350184685785</v>
       </c>
       <c r="F24">
-        <v>3.305296684650983</v>
+        <v>3.749894925465981</v>
       </c>
       <c r="G24">
-        <v>0.0007644968334883373</v>
+        <v>0.0008512272356758124</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.752074141270668</v>
       </c>
       <c r="J24">
-        <v>0.07198546376631754</v>
+        <v>0.2071733215242446</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.347809775523956</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.125152260079787</v>
       </c>
       <c r="M24">
-        <v>1.027513246950114</v>
+        <v>0.2264734304789684</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.054069548060824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.073600761530827</v>
+        <v>0.9399902192031959</v>
       </c>
       <c r="C25">
-        <v>0.7333488636134007</v>
+        <v>0.2034326757340068</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09078809562318924</v>
+        <v>0.005973602731121019</v>
       </c>
       <c r="F25">
-        <v>2.803696880218951</v>
+        <v>3.345854118812184</v>
       </c>
       <c r="G25">
-        <v>0.0007805623947572159</v>
+        <v>0.0008642708602959806</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.499134446287499</v>
       </c>
       <c r="J25">
-        <v>0.06741367885060612</v>
+        <v>0.203813549749988</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.101949104688885</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1077908144865276</v>
       </c>
       <c r="M25">
-        <v>0.8346770483406658</v>
+        <v>0.1881476022751798</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.732485736974652</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7952095278539559</v>
+        <v>0.9261335273315012</v>
       </c>
       <c r="C2">
-        <v>0.1691544619689012</v>
+        <v>0.06241763582036697</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.006092280592681076</v>
+        <v>0.05499493038387882</v>
       </c>
       <c r="F2">
-        <v>3.061997677643944</v>
+        <v>4.091642545872702</v>
       </c>
       <c r="G2">
-        <v>0.0008742276961092142</v>
+        <v>0.002638425221962101</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.321527348073161</v>
+        <v>2.913683916904645</v>
       </c>
       <c r="J2">
-        <v>0.2014086764234015</v>
+        <v>0.2619274559933054</v>
       </c>
       <c r="K2">
-        <v>0.9273423069275282</v>
+        <v>0.8121239644405307</v>
       </c>
       <c r="L2">
-        <v>0.09564332058348413</v>
+        <v>0.2551736539138005</v>
       </c>
       <c r="M2">
-        <v>0.1610350830459168</v>
+        <v>0.2494508083652391</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6998465125901419</v>
+        <v>0.9110007856409936</v>
       </c>
       <c r="C3">
-        <v>0.1464887230697798</v>
+        <v>0.0558126015109508</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.006196087812498918</v>
+        <v>0.05546402680068008</v>
       </c>
       <c r="F3">
-        <v>2.876730573983522</v>
+        <v>4.050608310526798</v>
       </c>
       <c r="G3">
-        <v>0.0008812194523266632</v>
+        <v>0.002642672102999894</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.205629966269242</v>
+        <v>2.883366713492236</v>
       </c>
       <c r="J3">
-        <v>0.1998081967315848</v>
+        <v>0.260562304083038</v>
       </c>
       <c r="K3">
-        <v>0.812177938724119</v>
+        <v>0.7888830276697263</v>
       </c>
       <c r="L3">
-        <v>0.08775751010551858</v>
+        <v>0.2557997799285445</v>
       </c>
       <c r="M3">
-        <v>0.1432309343674945</v>
+        <v>0.2475364809009051</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6424571468030535</v>
+        <v>0.9023844389466831</v>
       </c>
       <c r="C4">
-        <v>0.1327957443327108</v>
+        <v>0.05177497395391129</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.006271265657150638</v>
+        <v>0.05577272686756585</v>
       </c>
       <c r="F4">
-        <v>2.766063249989216</v>
+        <v>4.026585420026947</v>
       </c>
       <c r="G4">
-        <v>0.0008856398566205811</v>
+        <v>0.002645417710079299</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.136400138150492</v>
+        <v>2.865333966007455</v>
       </c>
       <c r="J4">
-        <v>0.1988358617761179</v>
+        <v>0.2597044850994266</v>
       </c>
       <c r="K4">
-        <v>0.7427824972102144</v>
+        <v>0.7751941231987303</v>
       </c>
       <c r="L4">
-        <v>0.08307176315338438</v>
+        <v>0.2563321924790714</v>
       </c>
       <c r="M4">
-        <v>0.1325448603865631</v>
+        <v>0.2465320131311621</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6193366409639225</v>
+        <v>0.8990431865422579</v>
       </c>
       <c r="C5">
-        <v>0.1272646023442405</v>
+        <v>0.05013399547175368</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.006304770384523151</v>
+        <v>0.0559037410862615</v>
       </c>
       <c r="F5">
-        <v>2.721684815708301</v>
+        <v>4.017090569175295</v>
       </c>
       <c r="G5">
-        <v>0.0008874742274929525</v>
+        <v>0.002646571381211121</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.108636902408946</v>
+        <v>2.858131559869904</v>
       </c>
       <c r="J5">
-        <v>0.19844166842908</v>
+        <v>0.2593499441191049</v>
       </c>
       <c r="K5">
-        <v>0.7148006806731075</v>
+        <v>0.7697618950147387</v>
       </c>
       <c r="L5">
-        <v>0.08119954280459041</v>
+        <v>0.2565864569789014</v>
       </c>
       <c r="M5">
-        <v>0.1282471680291444</v>
+        <v>0.2461657418367196</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6155128303693687</v>
+        <v>0.8984986461601068</v>
       </c>
       <c r="C6">
-        <v>0.1263489039015013</v>
+        <v>0.04986177400721203</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.006310506981018094</v>
+        <v>0.0559258114897685</v>
       </c>
       <c r="F6">
-        <v>2.714357664012525</v>
+        <v>4.015531750792206</v>
       </c>
       <c r="G6">
-        <v>0.0008877808451179691</v>
+        <v>0.002646765053640892</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.104052881480229</v>
+        <v>2.856944420300252</v>
       </c>
       <c r="J6">
-        <v>0.1983763202814508</v>
+        <v>0.2592907712906651</v>
       </c>
       <c r="K6">
-        <v>0.7101713469376989</v>
+        <v>0.768868702115526</v>
       </c>
       <c r="L6">
-        <v>0.08089085612751745</v>
+        <v>0.2566309331411318</v>
       </c>
       <c r="M6">
-        <v>0.1275368454230872</v>
+        <v>0.2461075255368002</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6421442918020261</v>
+        <v>0.902338689156835</v>
       </c>
       <c r="C7">
-        <v>0.1327209610396807</v>
+        <v>0.05175282552609417</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0062717059028774</v>
+        <v>0.05577447262559732</v>
       </c>
       <c r="F7">
-        <v>2.765461906721725</v>
+        <v>4.026456176194472</v>
       </c>
       <c r="G7">
-        <v>0.0008856644606265451</v>
+        <v>0.002645433127602982</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.136023945058412</v>
+        <v>2.865236240756474</v>
       </c>
       <c r="J7">
-        <v>0.1988305380064972</v>
+        <v>0.2596997238265537</v>
       </c>
       <c r="K7">
-        <v>0.7424039631440564</v>
+        <v>0.7751202706892286</v>
       </c>
       <c r="L7">
-        <v>0.08304636543442001</v>
+        <v>0.2563354704184988</v>
       </c>
       <c r="M7">
-        <v>0.1324866756768976</v>
+        <v>0.2465268990314442</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.762070203855302</v>
+        <v>0.9207757203848246</v>
       </c>
       <c r="C8">
-        <v>0.1612881981450585</v>
+        <v>0.06013643793441759</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.006125692889092926</v>
+        <v>0.05515239496369384</v>
       </c>
       <c r="F8">
-        <v>2.997441291396825</v>
+        <v>4.077250545288138</v>
       </c>
       <c r="G8">
-        <v>0.0008766126100865861</v>
+        <v>0.002639860970955642</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.281141816288041</v>
+        <v>2.903109531166308</v>
       </c>
       <c r="J8">
-        <v>0.2008543283411903</v>
+        <v>0.2614607965131377</v>
       </c>
       <c r="K8">
-        <v>0.8873395653087641</v>
+        <v>0.8039898549236852</v>
       </c>
       <c r="L8">
-        <v>0.09289062466653775</v>
+        <v>0.2553588868680876</v>
       </c>
       <c r="M8">
-        <v>0.1548421951048944</v>
+        <v>0.2487553127621815</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.007787852642792</v>
+        <v>0.9622837274314975</v>
       </c>
       <c r="C9">
-        <v>0.2194519271948678</v>
+        <v>0.07672445504422853</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.005930780162878513</v>
+        <v>0.05409573524014744</v>
       </c>
       <c r="F9">
-        <v>3.479638185552261</v>
+        <v>4.186172930012958</v>
       </c>
       <c r="G9">
-        <v>0.0008598256502364832</v>
+        <v>0.002630023893110314</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.58286656597403</v>
+        <v>2.982016405214992</v>
       </c>
       <c r="J9">
-        <v>0.2049326526352608</v>
+        <v>0.2647606071718904</v>
       </c>
       <c r="K9">
-        <v>1.183650991104741</v>
+        <v>0.8652194110113101</v>
       </c>
       <c r="L9">
-        <v>0.1135332145707295</v>
+        <v>0.254614044316952</v>
       </c>
       <c r="M9">
-        <v>0.2008686978585601</v>
+        <v>0.2544789935075897</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.19674686318092</v>
+        <v>0.9960426473543293</v>
       </c>
       <c r="C10">
-        <v>0.2640553719840284</v>
+        <v>0.08901100416017016</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.005844759575172498</v>
+        <v>0.05341783754559781</v>
       </c>
       <c r="F10">
-        <v>3.854783160600107</v>
+        <v>4.271906664814196</v>
       </c>
       <c r="G10">
-        <v>0.0008480079594748471</v>
+        <v>0.00262345387342756</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.817768796420197</v>
+        <v>3.042849183968286</v>
       </c>
       <c r="J10">
-        <v>0.2080372277756624</v>
+        <v>0.2670941136764782</v>
       </c>
       <c r="K10">
-        <v>1.411253380890798</v>
+        <v>0.913033282487703</v>
       </c>
       <c r="L10">
-        <v>0.1296657017868696</v>
+        <v>0.2547755183916962</v>
       </c>
       <c r="M10">
-        <v>0.236380926537084</v>
+        <v>0.2595071111562319</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.28503776874021</v>
+        <v>1.012109384398968</v>
       </c>
       <c r="C11">
-        <v>0.2848940692655617</v>
+        <v>0.09462410927588394</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.005818546221601384</v>
+        <v>0.05313059065628067</v>
       </c>
       <c r="F11">
-        <v>4.031025026190434</v>
+        <v>4.312155916910399</v>
       </c>
       <c r="G11">
-        <v>0.0008427261756311438</v>
+        <v>0.002620606199145135</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.928187246471879</v>
+        <v>3.071152077914434</v>
       </c>
       <c r="J11">
-        <v>0.2094832278362446</v>
+        <v>0.2681365577126229</v>
       </c>
       <c r="K11">
-        <v>1.517576024124054</v>
+        <v>0.9354028220721204</v>
       </c>
       <c r="L11">
-        <v>0.1372517143503771</v>
+        <v>0.2550019170633249</v>
       </c>
       <c r="M11">
-        <v>0.2529947525138923</v>
+        <v>0.2619728147330918</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.31885276985642</v>
+        <v>1.018295416636278</v>
       </c>
       <c r="C12">
-        <v>0.2928772026079969</v>
+        <v>0.09675322369645301</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.005810534846981463</v>
+        <v>0.05302483868122243</v>
       </c>
       <c r="F12">
-        <v>4.098662839005215</v>
+        <v>4.327577146183529</v>
       </c>
       <c r="G12">
-        <v>0.0008407380318825908</v>
+        <v>0.002619548027955417</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.970574797387798</v>
+        <v>3.081960654427249</v>
       </c>
       <c r="J12">
-        <v>0.2100365727317453</v>
+        <v>0.2685286051381084</v>
       </c>
       <c r="K12">
-        <v>1.558296652987025</v>
+        <v>0.9439627290057899</v>
       </c>
       <c r="L12">
-        <v>0.1401632873760406</v>
+        <v>0.2551095572914619</v>
       </c>
       <c r="M12">
-        <v>0.2593603048976689</v>
+        <v>0.2629321130862969</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.311552373115973</v>
+        <v>1.016958613653316</v>
       </c>
       <c r="C13">
-        <v>0.2911535771907836</v>
+        <v>0.09629452089436086</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.005812173996374348</v>
+        <v>0.05304748011100302</v>
       </c>
       <c r="F13">
-        <v>4.084054227377294</v>
+        <v>4.324247913066444</v>
       </c>
       <c r="G13">
-        <v>0.0008411657094752087</v>
+        <v>0.002619775028019484</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.961419267381203</v>
+        <v>3.079628786752778</v>
       </c>
       <c r="J13">
-        <v>0.2099171273591196</v>
+        <v>0.2684442903136173</v>
       </c>
       <c r="K13">
-        <v>1.549505352700521</v>
+        <v>0.9421152382901425</v>
       </c>
       <c r="L13">
-        <v>0.1395344403788812</v>
+        <v>0.2550854020241999</v>
       </c>
       <c r="M13">
-        <v>0.2579859266099298</v>
+        <v>0.2627243738749954</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.287811831447414</v>
+        <v>1.012616271374895</v>
       </c>
       <c r="C14">
-        <v>0.2855489229355896</v>
+        <v>0.09479920091050076</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.005817848359594979</v>
+        <v>0.05312182990286285</v>
       </c>
       <c r="F14">
-        <v>4.036571034904625</v>
+        <v>4.313421028052545</v>
       </c>
       <c r="G14">
-        <v>0.0008425623799991848</v>
+        <v>0.002620518739212068</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.931662602072109</v>
+        <v>3.072039482671897</v>
       </c>
       <c r="J14">
-        <v>0.2095286304522759</v>
+        <v>0.2681688656433678</v>
       </c>
       <c r="K14">
-        <v>1.520916590401839</v>
+        <v>0.9361052656954598</v>
       </c>
       <c r="L14">
-        <v>0.1374904509302866</v>
+        <v>0.2550103341051511</v>
       </c>
       <c r="M14">
-        <v>0.2535169119760816</v>
+        <v>0.2620512242757513</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.273321139629786</v>
+        <v>1.00996972877391</v>
       </c>
       <c r="C15">
-        <v>0.2821283015168774</v>
+        <v>0.09388374049763115</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.00582157541832995</v>
+        <v>0.0531677643858941</v>
       </c>
       <c r="F15">
-        <v>4.007606259325854</v>
+        <v>4.306812657193518</v>
       </c>
       <c r="G15">
-        <v>0.0008434193877936235</v>
+        <v>0.002620976908703227</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.91351256091464</v>
+        <v>3.06740266036384</v>
       </c>
       <c r="J15">
-        <v>0.2092914461870201</v>
+        <v>0.2679998091901581</v>
       </c>
       <c r="K15">
-        <v>1.503466691700396</v>
+        <v>0.9324355827708359</v>
       </c>
       <c r="L15">
-        <v>0.1362436213247875</v>
+        <v>0.2549672033931216</v>
       </c>
       <c r="M15">
-        <v>0.2507894405018547</v>
+        <v>0.2616422314572411</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.191027584958078</v>
+        <v>0.9950069161058366</v>
       </c>
       <c r="C16">
-        <v>0.2627056377700399</v>
+        <v>0.08864466535396787</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.005846737213740294</v>
+        <v>0.05343703361635832</v>
       </c>
       <c r="F16">
-        <v>3.843385709562142</v>
+        <v>4.269301420061367</v>
       </c>
       <c r="G16">
-        <v>0.0008483548989253171</v>
+        <v>0.002623642805243298</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.810629538345211</v>
+        <v>3.041012223520681</v>
       </c>
       <c r="J16">
-        <v>0.2079434839837226</v>
+        <v>0.2670256070120907</v>
       </c>
       <c r="K16">
-        <v>1.404365816692916</v>
+        <v>0.9115838374804923</v>
       </c>
       <c r="L16">
-        <v>0.1291751935644214</v>
+        <v>0.2547637930187747</v>
       </c>
       <c r="M16">
-        <v>0.235305098167796</v>
+        <v>0.2593495559105428</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.141171664373047</v>
+        <v>0.9860093700906702</v>
       </c>
       <c r="C17">
-        <v>0.2509398069819042</v>
+        <v>0.0854368653045583</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.005865518285657512</v>
+        <v>0.05360762216109904</v>
       </c>
       <c r="F17">
-        <v>3.744137650814253</v>
+        <v>4.246609394666081</v>
       </c>
       <c r="G17">
-        <v>0.0008514057065738776</v>
+        <v>0.002625314301735166</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.748468595332398</v>
+        <v>3.024984073552062</v>
       </c>
       <c r="J17">
-        <v>0.2071258203832294</v>
+        <v>0.266423107404492</v>
       </c>
       <c r="K17">
-        <v>1.34432343093556</v>
+        <v>0.8989504961981822</v>
       </c>
       <c r="L17">
-        <v>0.124904564307144</v>
+        <v>0.2546781189180791</v>
       </c>
       <c r="M17">
-        <v>0.2259291556350611</v>
+        <v>0.2579887184953193</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.112712402417799</v>
+        <v>0.9809010215950593</v>
       </c>
       <c r="C18">
-        <v>0.2442231624560804</v>
+        <v>0.08359406533440961</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.005877532328866009</v>
+        <v>0.05370773022118702</v>
       </c>
       <c r="F18">
-        <v>3.687572383232691</v>
+        <v>4.233675050469429</v>
       </c>
       <c r="G18">
-        <v>0.0008531694149366619</v>
+        <v>0.002626288985916214</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.713046285449849</v>
+        <v>3.015824361893479</v>
       </c>
       <c r="J18">
-        <v>0.2066586345961596</v>
+        <v>0.2660747673065345</v>
       </c>
       <c r="K18">
-        <v>1.310046979262438</v>
+        <v>0.8917423694050797</v>
       </c>
       <c r="L18">
-        <v>0.1224712659871656</v>
+        <v>0.2546432422148541</v>
       </c>
       <c r="M18">
-        <v>0.220579038169177</v>
+        <v>0.2572227951150978</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.103112458450767</v>
+        <v>0.9791829001556209</v>
       </c>
       <c r="C19">
-        <v>0.2419573615052855</v>
+        <v>0.08297050638395831</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.00588180665662108</v>
+        <v>0.05374196739017045</v>
       </c>
       <c r="F19">
-        <v>3.66850683472282</v>
+        <v>4.229315880801209</v>
       </c>
       <c r="G19">
-        <v>0.0008537681618244326</v>
+        <v>0.002626621281678799</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.70110794618563</v>
+        <v>3.012733208282853</v>
       </c>
       <c r="J19">
-        <v>0.2065009612777828</v>
+        <v>0.2659565152530341</v>
       </c>
       <c r="K19">
-        <v>1.298484259803189</v>
+        <v>0.8893118217703204</v>
       </c>
       <c r="L19">
-        <v>0.1216512553710274</v>
+        <v>0.2546339095176364</v>
       </c>
       <c r="M19">
-        <v>0.2187746723898911</v>
+        <v>0.2569663529692754</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.146456184130329</v>
+        <v>0.9869602614958239</v>
       </c>
       <c r="C20">
-        <v>0.2521869567880231</v>
+        <v>0.08577810822981746</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.005863393233933589</v>
+        <v>0.05358925687803406</v>
       </c>
       <c r="F20">
-        <v>3.754648338003165</v>
+        <v>4.24901283661643</v>
       </c>
       <c r="G20">
-        <v>0.0008510800260694961</v>
+        <v>0.002625134993967215</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.755051040957426</v>
+        <v>3.026684162340359</v>
       </c>
       <c r="J20">
-        <v>0.2072125334776658</v>
+        <v>0.266487430337186</v>
       </c>
       <c r="K20">
-        <v>1.350687906719486</v>
+        <v>0.9002893091633268</v>
       </c>
       <c r="L20">
-        <v>0.1253567706794314</v>
+        <v>0.2546857492673951</v>
       </c>
       <c r="M20">
-        <v>0.2269227668058313</v>
+        <v>0.2581318442701743</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.294774271511585</v>
+        <v>1.013888957877185</v>
       </c>
       <c r="C21">
-        <v>0.2871925379700144</v>
+        <v>0.09523831525874016</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.005816129157598438</v>
+        <v>0.0530999096768161</v>
       </c>
       <c r="F21">
-        <v>4.050492797136513</v>
+        <v>4.316596267936887</v>
       </c>
       <c r="G21">
-        <v>0.0008421518329979284</v>
+        <v>0.002620299746350642</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.940386735576553</v>
+        <v>3.074266176056213</v>
       </c>
       <c r="J21">
-        <v>0.2096425768014214</v>
+        <v>0.2682498375995479</v>
       </c>
       <c r="K21">
-        <v>1.529300864894026</v>
+        <v>0.9378681230134021</v>
       </c>
       <c r="L21">
-        <v>0.1380897356903716</v>
+        <v>0.2550317894697827</v>
       </c>
       <c r="M21">
-        <v>0.2548274848155785</v>
+        <v>0.2622482506142774</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.39395511868176</v>
+        <v>1.032082354421732</v>
       </c>
       <c r="C22">
-        <v>0.3106139495417608</v>
+        <v>0.1014418741409031</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.005796439323443536</v>
+        <v>0.05279770104304227</v>
       </c>
       <c r="F22">
-        <v>4.249134732311859</v>
+        <v>4.36181352278976</v>
       </c>
       <c r="G22">
-        <v>0.0008363855656000603</v>
+        <v>0.002617257214320337</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.064896472845987</v>
+        <v>3.105893670704688</v>
       </c>
       <c r="J22">
-        <v>0.2112649164170222</v>
+        <v>0.2693859329273209</v>
       </c>
       <c r="K22">
-        <v>1.64873903956854</v>
+        <v>0.9629471257898672</v>
       </c>
       <c r="L22">
-        <v>0.146640084181719</v>
+        <v>0.2553856043682856</v>
       </c>
       <c r="M22">
-        <v>0.2735020996061834</v>
+        <v>0.2650876900326509</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.340798504678133</v>
+        <v>1.02231789456107</v>
       </c>
       <c r="C23">
-        <v>0.2980590744523681</v>
+        <v>0.09812897877833393</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.005805900468976333</v>
+        <v>0.05295738977638287</v>
       </c>
       <c r="F23">
-        <v>4.142597637539808</v>
+        <v>4.337584312035773</v>
       </c>
       <c r="G23">
-        <v>0.0008394573982529481</v>
+        <v>0.002618870346168925</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.998111497414101</v>
+        <v>3.08896488795655</v>
       </c>
       <c r="J23">
-        <v>0.2103955860348563</v>
+        <v>0.2687810044719612</v>
       </c>
       <c r="K23">
-        <v>1.584724380262372</v>
+        <v>0.9495144698898343</v>
       </c>
       <c r="L23">
-        <v>0.1420544887308708</v>
+        <v>0.2551851138674479</v>
       </c>
       <c r="M23">
-        <v>0.2634921525288263</v>
+        <v>0.2635586024873575</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.144066422068505</v>
+        <v>0.9865301626955443</v>
       </c>
       <c r="C24">
-        <v>0.251622972795559</v>
+        <v>0.08562382793166989</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.005864350184685785</v>
+        <v>0.05359755348458961</v>
       </c>
       <c r="F24">
-        <v>3.749894925465981</v>
+        <v>4.24792589288441</v>
       </c>
       <c r="G24">
-        <v>0.0008512272356758124</v>
+        <v>0.002625216016106293</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.752074141270668</v>
+        <v>3.025915380632426</v>
       </c>
       <c r="J24">
-        <v>0.2071733215242446</v>
+        <v>0.2664583560318441</v>
       </c>
       <c r="K24">
-        <v>1.347809775523956</v>
+        <v>0.8996838606690574</v>
       </c>
       <c r="L24">
-        <v>0.125152260079787</v>
+        <v>0.2546822547934795</v>
       </c>
       <c r="M24">
-        <v>0.2264734304789684</v>
+        <v>0.2580670858941119</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9399902192031959</v>
+        <v>0.9504816949053634</v>
       </c>
       <c r="C25">
-        <v>0.2034326757340068</v>
+        <v>0.07222018343446734</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.005973602731121019</v>
+        <v>0.05436422690115261</v>
       </c>
       <c r="F25">
-        <v>3.345854118812184</v>
+        <v>4.155706247571743</v>
       </c>
       <c r="G25">
-        <v>0.0008642708602959806</v>
+        <v>0.002632569143529658</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.499134446287499</v>
+        <v>2.960170145019262</v>
       </c>
       <c r="J25">
-        <v>0.203813549749988</v>
+        <v>0.2638840790143888</v>
       </c>
       <c r="K25">
-        <v>1.101949104688885</v>
+        <v>0.8481595296674698</v>
       </c>
       <c r="L25">
-        <v>0.1077908144865276</v>
+        <v>0.2546907516146746</v>
       </c>
       <c r="M25">
-        <v>0.1881476022751798</v>
+        <v>0.252785905809592</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9261335273315012</v>
+        <v>0.795209527854098</v>
       </c>
       <c r="C2">
-        <v>0.06241763582036697</v>
+        <v>0.1691544619688869</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05499493038387882</v>
+        <v>0.00609228059264133</v>
       </c>
       <c r="F2">
-        <v>4.091642545872702</v>
+        <v>3.06199767764393</v>
       </c>
       <c r="G2">
-        <v>0.002638425221962101</v>
+        <v>0.0008742276961668337</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.913683916904645</v>
+        <v>2.321527348073133</v>
       </c>
       <c r="J2">
-        <v>0.2619274559933054</v>
+        <v>0.2014086764234193</v>
       </c>
       <c r="K2">
-        <v>0.8121239644405307</v>
+        <v>0.9273423069274997</v>
       </c>
       <c r="L2">
-        <v>0.2551736539138005</v>
+        <v>0.09564332058344149</v>
       </c>
       <c r="M2">
-        <v>0.2494508083652391</v>
+        <v>0.1610350830459062</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9110007856409936</v>
+        <v>0.6998465125903124</v>
       </c>
       <c r="C3">
-        <v>0.0558126015109508</v>
+        <v>0.1464887230697514</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05546402680068008</v>
+        <v>0.006196087812462725</v>
       </c>
       <c r="F3">
-        <v>4.050608310526798</v>
+        <v>2.876730573983522</v>
       </c>
       <c r="G3">
-        <v>0.002642672102999894</v>
+        <v>0.0008812194522656111</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.883366713492236</v>
+        <v>2.205629966269257</v>
       </c>
       <c r="J3">
-        <v>0.260562304083038</v>
+        <v>0.199808196731734</v>
       </c>
       <c r="K3">
-        <v>0.7888830276697263</v>
+        <v>0.8121779387240053</v>
       </c>
       <c r="L3">
-        <v>0.2557997799285445</v>
+        <v>0.08775751010549016</v>
       </c>
       <c r="M3">
-        <v>0.2475364809009051</v>
+        <v>0.1432309343674909</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9023844389466831</v>
+        <v>0.642457146802883</v>
       </c>
       <c r="C4">
-        <v>0.05177497395391129</v>
+        <v>0.1327957443326966</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05577272686756585</v>
+        <v>0.006271265657177283</v>
       </c>
       <c r="F4">
-        <v>4.026585420026947</v>
+        <v>2.766063249989259</v>
       </c>
       <c r="G4">
-        <v>0.002645417710079299</v>
+        <v>0.0008856398565581866</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.865333966007455</v>
+        <v>2.136400138150492</v>
       </c>
       <c r="J4">
-        <v>0.2597044850994266</v>
+        <v>0.1988358617761037</v>
       </c>
       <c r="K4">
-        <v>0.7751941231987303</v>
+        <v>0.742782497210186</v>
       </c>
       <c r="L4">
-        <v>0.2563321924790714</v>
+        <v>0.08307176315344122</v>
       </c>
       <c r="M4">
-        <v>0.2465320131311621</v>
+        <v>0.1325448603865738</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8990431865422579</v>
+        <v>0.6193366409639225</v>
       </c>
       <c r="C5">
-        <v>0.05013399547175368</v>
+        <v>0.1272646023446953</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0559037410862615</v>
+        <v>0.00630477038455135</v>
       </c>
       <c r="F5">
-        <v>4.017090569175295</v>
+        <v>2.721684815708272</v>
       </c>
       <c r="G5">
-        <v>0.002646571381211121</v>
+        <v>0.000887474227480537</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.858131559869904</v>
+        <v>2.108636902408961</v>
       </c>
       <c r="J5">
-        <v>0.2593499441191049</v>
+        <v>0.198441668429119</v>
       </c>
       <c r="K5">
-        <v>0.7697618950147387</v>
+        <v>0.7148006806730223</v>
       </c>
       <c r="L5">
-        <v>0.2565864569789014</v>
+        <v>0.08119954280449093</v>
       </c>
       <c r="M5">
-        <v>0.2461657418367196</v>
+        <v>0.1282471680291586</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8984986461601068</v>
+        <v>0.6155128303691981</v>
       </c>
       <c r="C6">
-        <v>0.04986177400721203</v>
+        <v>0.1263489039017003</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0559258114897685</v>
+        <v>0.006310506981020758</v>
       </c>
       <c r="F6">
-        <v>4.015531750792206</v>
+        <v>2.714357664012539</v>
       </c>
       <c r="G6">
-        <v>0.002646765053640892</v>
+        <v>0.0008877808451189155</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.856944420300252</v>
+        <v>2.104052881480243</v>
       </c>
       <c r="J6">
-        <v>0.2592907712906651</v>
+        <v>0.1983763202812803</v>
       </c>
       <c r="K6">
-        <v>0.768868702115526</v>
+        <v>0.7101713469376989</v>
       </c>
       <c r="L6">
-        <v>0.2566309331411318</v>
+        <v>0.08089085612747482</v>
       </c>
       <c r="M6">
-        <v>0.2461075255368002</v>
+        <v>0.1275368454230801</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.902338689156835</v>
+        <v>0.642144291802083</v>
       </c>
       <c r="C7">
-        <v>0.05175282552609417</v>
+        <v>0.1327209610401638</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05577447262559732</v>
+        <v>0.006271705902870295</v>
       </c>
       <c r="F7">
-        <v>4.026456176194472</v>
+        <v>2.765461906721754</v>
       </c>
       <c r="G7">
-        <v>0.002645433127602982</v>
+        <v>0.0008856644606288405</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.865236240756474</v>
+        <v>2.13602394505844</v>
       </c>
       <c r="J7">
-        <v>0.2596997238265537</v>
+        <v>0.1988305380065825</v>
       </c>
       <c r="K7">
-        <v>0.7751202706892286</v>
+        <v>0.7424039631442554</v>
       </c>
       <c r="L7">
-        <v>0.2563354704184988</v>
+        <v>0.08304636543444843</v>
       </c>
       <c r="M7">
-        <v>0.2465268990314442</v>
+        <v>0.1324866756769225</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9207757203848246</v>
+        <v>0.7620702038554441</v>
       </c>
       <c r="C8">
-        <v>0.06013643793441759</v>
+        <v>0.1612881981450585</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05515239496369384</v>
+        <v>0.006125692889092038</v>
       </c>
       <c r="F8">
-        <v>4.077250545288138</v>
+        <v>2.997441291396825</v>
       </c>
       <c r="G8">
-        <v>0.002639860970955642</v>
+        <v>0.0008766126100862046</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.903109531166308</v>
+        <v>2.281141816288027</v>
       </c>
       <c r="J8">
-        <v>0.2614607965131377</v>
+        <v>0.2008543283412472</v>
       </c>
       <c r="K8">
-        <v>0.8039898549236852</v>
+        <v>0.8873395653088778</v>
       </c>
       <c r="L8">
-        <v>0.2553588868680876</v>
+        <v>0.09289062466640985</v>
       </c>
       <c r="M8">
-        <v>0.2487553127621815</v>
+        <v>0.1548421951048944</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9622837274314975</v>
+        <v>1.007787852642736</v>
       </c>
       <c r="C9">
-        <v>0.07672445504422853</v>
+        <v>0.2194519271948536</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05409573524014744</v>
+        <v>0.005930780162904714</v>
       </c>
       <c r="F9">
-        <v>4.186172930012958</v>
+        <v>3.479638185552261</v>
       </c>
       <c r="G9">
-        <v>0.002630023893110314</v>
+        <v>0.0008598256502343752</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.982016405214992</v>
+        <v>2.582866565974001</v>
       </c>
       <c r="J9">
-        <v>0.2647606071718904</v>
+        <v>0.2049326526352466</v>
       </c>
       <c r="K9">
-        <v>0.8652194110113101</v>
+        <v>1.183650991104741</v>
       </c>
       <c r="L9">
-        <v>0.254614044316952</v>
+        <v>0.1135332145707011</v>
       </c>
       <c r="M9">
-        <v>0.2544789935075897</v>
+        <v>0.200868697858553</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9960426473543293</v>
+        <v>1.196746863180664</v>
       </c>
       <c r="C10">
-        <v>0.08901100416017016</v>
+        <v>0.2640553719842842</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05341783754559781</v>
+        <v>0.005844759575108327</v>
       </c>
       <c r="F10">
-        <v>4.271906664814196</v>
+        <v>3.854783160600164</v>
       </c>
       <c r="G10">
-        <v>0.00262345387342756</v>
+        <v>0.0008480079594719697</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.042849183968286</v>
+        <v>2.817768796420239</v>
       </c>
       <c r="J10">
-        <v>0.2670941136764782</v>
+        <v>0.2080372277755913</v>
       </c>
       <c r="K10">
-        <v>0.913033282487703</v>
+        <v>1.411253380890855</v>
       </c>
       <c r="L10">
-        <v>0.2547755183916962</v>
+        <v>0.1296657017867773</v>
       </c>
       <c r="M10">
-        <v>0.2595071111562319</v>
+        <v>0.236380926537084</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.012109384398968</v>
+        <v>1.28503776874021</v>
       </c>
       <c r="C11">
-        <v>0.09462410927588394</v>
+        <v>0.2848940692655901</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05313059065628067</v>
+        <v>0.00581854622154121</v>
       </c>
       <c r="F11">
-        <v>4.312155916910399</v>
+        <v>4.031025026190434</v>
       </c>
       <c r="G11">
-        <v>0.002620606199145135</v>
+        <v>0.0008427261756190085</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.071152077914434</v>
+        <v>2.928187246471879</v>
       </c>
       <c r="J11">
-        <v>0.2681365577126229</v>
+        <v>0.2094832278363654</v>
       </c>
       <c r="K11">
-        <v>0.9354028220721204</v>
+        <v>1.517576024124168</v>
       </c>
       <c r="L11">
-        <v>0.2550019170633249</v>
+        <v>0.1372517143502989</v>
       </c>
       <c r="M11">
-        <v>0.2619728147330918</v>
+        <v>0.252994752513878</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.018295416636278</v>
+        <v>1.318852769856534</v>
       </c>
       <c r="C12">
-        <v>0.09675322369645301</v>
+        <v>0.2928772026081958</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05302483868122243</v>
+        <v>0.005810534847039861</v>
       </c>
       <c r="F12">
-        <v>4.327577146183529</v>
+        <v>4.098662839005215</v>
       </c>
       <c r="G12">
-        <v>0.002619548027955417</v>
+        <v>0.0008407380318820845</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.081960654427249</v>
+        <v>2.970574797387826</v>
       </c>
       <c r="J12">
-        <v>0.2685286051381084</v>
+        <v>0.2100365727316813</v>
       </c>
       <c r="K12">
-        <v>0.9439627290057899</v>
+        <v>1.558296652987025</v>
       </c>
       <c r="L12">
-        <v>0.2551095572914619</v>
+        <v>0.1401632873758416</v>
       </c>
       <c r="M12">
-        <v>0.2629321130862969</v>
+        <v>0.2593603048976796</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.016958613653316</v>
+        <v>1.311552373116172</v>
       </c>
       <c r="C13">
-        <v>0.09629452089436086</v>
+        <v>0.291153577190812</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05304748011100302</v>
+        <v>0.005812173996386338</v>
       </c>
       <c r="F13">
-        <v>4.324247913066444</v>
+        <v>4.084054227377266</v>
       </c>
       <c r="G13">
-        <v>0.002619775028019484</v>
+        <v>0.0008411657094637506</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.079628786752778</v>
+        <v>2.961419267381189</v>
       </c>
       <c r="J13">
-        <v>0.2684442903136173</v>
+        <v>0.2099171273591978</v>
       </c>
       <c r="K13">
-        <v>0.9421152382901425</v>
+        <v>1.549505352700464</v>
       </c>
       <c r="L13">
-        <v>0.2550854020241999</v>
+        <v>0.1395344403788528</v>
       </c>
       <c r="M13">
-        <v>0.2627243738749954</v>
+        <v>0.257985926609944</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.012616271374895</v>
+        <v>1.287811831447385</v>
       </c>
       <c r="C14">
-        <v>0.09479920091050076</v>
+        <v>0.2855489229355896</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05312182990286285</v>
+        <v>0.00581784835965804</v>
       </c>
       <c r="F14">
-        <v>4.313421028052545</v>
+        <v>4.036571034904597</v>
       </c>
       <c r="G14">
-        <v>0.002620518739212068</v>
+        <v>0.0008425623799480137</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.072039482671897</v>
+        <v>2.931662602072151</v>
       </c>
       <c r="J14">
-        <v>0.2681688656433678</v>
+        <v>0.2095286304524819</v>
       </c>
       <c r="K14">
-        <v>0.9361052656954598</v>
+        <v>1.52091659040201</v>
       </c>
       <c r="L14">
-        <v>0.2550103341051511</v>
+        <v>0.1374904509303931</v>
       </c>
       <c r="M14">
-        <v>0.2620512242757513</v>
+        <v>0.2535169119761207</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.00996972877391</v>
+        <v>1.2733211396299</v>
       </c>
       <c r="C15">
-        <v>0.09388374049763115</v>
+        <v>0.2821283015169058</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0531677643858941</v>
+        <v>0.005821575418347935</v>
       </c>
       <c r="F15">
-        <v>4.306812657193518</v>
+        <v>4.007606259325883</v>
       </c>
       <c r="G15">
-        <v>0.002620976908703227</v>
+        <v>0.0008434193879211743</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.06740266036384</v>
+        <v>2.913512560914654</v>
       </c>
       <c r="J15">
-        <v>0.2679998091901581</v>
+        <v>0.2092914461870947</v>
       </c>
       <c r="K15">
-        <v>0.9324355827708359</v>
+        <v>1.503466691700254</v>
       </c>
       <c r="L15">
-        <v>0.2549672033931216</v>
+        <v>0.1362436213247946</v>
       </c>
       <c r="M15">
-        <v>0.2616422314572411</v>
+        <v>0.2507894405018583</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9950069161058366</v>
+        <v>1.19102758495788</v>
       </c>
       <c r="C16">
-        <v>0.08864466535396787</v>
+        <v>0.2627056377697556</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05343703361635832</v>
+        <v>0.005846737213792697</v>
       </c>
       <c r="F16">
-        <v>4.269301420061367</v>
+        <v>3.843385709562114</v>
       </c>
       <c r="G16">
-        <v>0.002623642805243298</v>
+        <v>0.000848354898915605</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.041012223520681</v>
+        <v>2.810629538345225</v>
       </c>
       <c r="J16">
-        <v>0.2670256070120907</v>
+        <v>0.2079434839836054</v>
       </c>
       <c r="K16">
-        <v>0.9115838374804923</v>
+        <v>1.404365816692973</v>
       </c>
       <c r="L16">
-        <v>0.2547637930187747</v>
+        <v>0.129175193564393</v>
       </c>
       <c r="M16">
-        <v>0.2593495559105428</v>
+        <v>0.2353050981677924</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9860093700906702</v>
+        <v>1.141171664372905</v>
       </c>
       <c r="C17">
-        <v>0.0854368653045583</v>
+        <v>0.2509398069819042</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05360762216109904</v>
+        <v>0.005865518285751437</v>
       </c>
       <c r="F17">
-        <v>4.246609394666081</v>
+        <v>3.744137650814224</v>
       </c>
       <c r="G17">
-        <v>0.002625314301735166</v>
+        <v>0.0008514057065737064</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.024984073552062</v>
+        <v>2.748468595332412</v>
       </c>
       <c r="J17">
-        <v>0.266423107404492</v>
+        <v>0.2071258203831619</v>
       </c>
       <c r="K17">
-        <v>0.8989504961981822</v>
+        <v>1.344323430935418</v>
       </c>
       <c r="L17">
-        <v>0.2546781189180791</v>
+        <v>0.1249045643072648</v>
       </c>
       <c r="M17">
-        <v>0.2579887184953193</v>
+        <v>0.2259291556350824</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9809010215950593</v>
+        <v>1.112712402417969</v>
       </c>
       <c r="C18">
-        <v>0.08359406533440961</v>
+        <v>0.2442231624560236</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05370773022118702</v>
+        <v>0.005877532328874002</v>
       </c>
       <c r="F18">
-        <v>4.233675050469429</v>
+        <v>3.68757238323272</v>
       </c>
       <c r="G18">
-        <v>0.002626288985916214</v>
+        <v>0.0008531694149255854</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.015824361893479</v>
+        <v>2.713046285449863</v>
       </c>
       <c r="J18">
-        <v>0.2660747673065345</v>
+        <v>0.2066586345961809</v>
       </c>
       <c r="K18">
-        <v>0.8917423694050797</v>
+        <v>1.310046979262438</v>
       </c>
       <c r="L18">
-        <v>0.2546432422148541</v>
+        <v>0.1224712659871585</v>
       </c>
       <c r="M18">
-        <v>0.2572227951150978</v>
+        <v>0.2205790381691486</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9791829001556209</v>
+        <v>1.10311245845088</v>
       </c>
       <c r="C19">
-        <v>0.08297050638395831</v>
+        <v>0.2419573615050012</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05374196739017045</v>
+        <v>0.005881806656659272</v>
       </c>
       <c r="F19">
-        <v>4.229315880801209</v>
+        <v>3.66850683472282</v>
       </c>
       <c r="G19">
-        <v>0.002626621281678799</v>
+        <v>0.000853768161825184</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.012733208282853</v>
+        <v>2.70110794618563</v>
       </c>
       <c r="J19">
-        <v>0.2659565152530341</v>
+        <v>0.2065009612777189</v>
       </c>
       <c r="K19">
-        <v>0.8893118217703204</v>
+        <v>1.298484259803331</v>
       </c>
       <c r="L19">
-        <v>0.2546339095176364</v>
+        <v>0.1216512553708569</v>
       </c>
       <c r="M19">
-        <v>0.2569663529692754</v>
+        <v>0.2187746723898911</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9869602614958239</v>
+        <v>1.146456184130273</v>
       </c>
       <c r="C20">
-        <v>0.08577810822981746</v>
+        <v>0.2521869567879946</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05358925687803406</v>
+        <v>0.005863393233905834</v>
       </c>
       <c r="F20">
-        <v>4.24901283661643</v>
+        <v>3.754648338003193</v>
       </c>
       <c r="G20">
-        <v>0.002625134993967215</v>
+        <v>0.000851080026144</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.026684162340359</v>
+        <v>2.755051040957397</v>
       </c>
       <c r="J20">
-        <v>0.266487430337186</v>
+        <v>0.2072125334777155</v>
       </c>
       <c r="K20">
-        <v>0.9002893091633268</v>
+        <v>1.3506879067196</v>
       </c>
       <c r="L20">
-        <v>0.2546857492673951</v>
+        <v>0.1253567706795948</v>
       </c>
       <c r="M20">
-        <v>0.2581318442701743</v>
+        <v>0.2269227668058278</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.013888957877185</v>
+        <v>1.294774271511557</v>
       </c>
       <c r="C21">
-        <v>0.09523831525874016</v>
+        <v>0.2871925379700428</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0530999096768161</v>
+        <v>0.005816129157528049</v>
       </c>
       <c r="F21">
-        <v>4.316596267936887</v>
+        <v>4.050492797136542</v>
       </c>
       <c r="G21">
-        <v>0.002620299746350642</v>
+        <v>0.0008421518329957168</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.074266176056213</v>
+        <v>2.940386735576553</v>
       </c>
       <c r="J21">
-        <v>0.2682498375995479</v>
+        <v>0.2096425768015351</v>
       </c>
       <c r="K21">
-        <v>0.9378681230134021</v>
+        <v>1.529300864893997</v>
       </c>
       <c r="L21">
-        <v>0.2550317894697827</v>
+        <v>0.1380897356903503</v>
       </c>
       <c r="M21">
-        <v>0.2622482506142774</v>
+        <v>0.2548274848155678</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.032082354421732</v>
+        <v>1.393955118681959</v>
       </c>
       <c r="C22">
-        <v>0.1014418741409031</v>
+        <v>0.3106139495417324</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05279770104304227</v>
+        <v>0.005796439323444424</v>
       </c>
       <c r="F22">
-        <v>4.36181352278976</v>
+        <v>4.249134732311859</v>
       </c>
       <c r="G22">
-        <v>0.002617257214320337</v>
+        <v>0.0008363855656593619</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.105893670704688</v>
+        <v>3.064896472845973</v>
       </c>
       <c r="J22">
-        <v>0.2693859329273209</v>
+        <v>0.2112649164170435</v>
       </c>
       <c r="K22">
-        <v>0.9629471257898672</v>
+        <v>1.648739039568511</v>
       </c>
       <c r="L22">
-        <v>0.2553856043682856</v>
+        <v>0.1466400841817972</v>
       </c>
       <c r="M22">
-        <v>0.2650876900326509</v>
+        <v>0.2735020996061763</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02231789456107</v>
+        <v>1.340798504678276</v>
       </c>
       <c r="C23">
-        <v>0.09812897877833393</v>
+        <v>0.2980590744523397</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05295738977638287</v>
+        <v>0.005805900468997871</v>
       </c>
       <c r="F23">
-        <v>4.337584312035773</v>
+        <v>4.142597637539779</v>
       </c>
       <c r="G23">
-        <v>0.002618870346168925</v>
+        <v>0.0008394573982665722</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.08896488795655</v>
+        <v>2.998111497414101</v>
       </c>
       <c r="J23">
-        <v>0.2687810044719612</v>
+        <v>0.2103955860349132</v>
       </c>
       <c r="K23">
-        <v>0.9495144698898343</v>
+        <v>1.584724380262344</v>
       </c>
       <c r="L23">
-        <v>0.2551851138674479</v>
+        <v>0.142054488730885</v>
       </c>
       <c r="M23">
-        <v>0.2635586024873575</v>
+        <v>0.2634921525288156</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9865301626955443</v>
+        <v>1.144066422068647</v>
       </c>
       <c r="C24">
-        <v>0.08562382793166989</v>
+        <v>0.2516229727958148</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05359755348458961</v>
+        <v>0.005864350184735745</v>
       </c>
       <c r="F24">
-        <v>4.24792589288441</v>
+        <v>3.749894925466037</v>
       </c>
       <c r="G24">
-        <v>0.002625216016106293</v>
+        <v>0.0008512272356675275</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.025915380632426</v>
+        <v>2.752074141270683</v>
       </c>
       <c r="J24">
-        <v>0.2664583560318441</v>
+        <v>0.2071733215242411</v>
       </c>
       <c r="K24">
-        <v>0.8996838606690574</v>
+        <v>1.347809775523956</v>
       </c>
       <c r="L24">
-        <v>0.2546822547934795</v>
+        <v>0.1251522600799504</v>
       </c>
       <c r="M24">
-        <v>0.2580670858941119</v>
+        <v>0.2264734304790039</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9504816949053634</v>
+        <v>0.9399902192034517</v>
       </c>
       <c r="C25">
-        <v>0.07222018343446734</v>
+        <v>0.2034326757342484</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05436422690115261</v>
+        <v>0.005973602731114358</v>
       </c>
       <c r="F25">
-        <v>4.155706247571743</v>
+        <v>3.345854118812213</v>
       </c>
       <c r="G25">
-        <v>0.002632569143529658</v>
+        <v>0.0008642708602271705</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.960170145019262</v>
+        <v>2.499134446287513</v>
       </c>
       <c r="J25">
-        <v>0.2638840790143888</v>
+        <v>0.2038135497499631</v>
       </c>
       <c r="K25">
-        <v>0.8481595296674698</v>
+        <v>1.101949104688885</v>
       </c>
       <c r="L25">
-        <v>0.2546907516146746</v>
+        <v>0.1077908144864708</v>
       </c>
       <c r="M25">
-        <v>0.252785905809592</v>
+        <v>0.188147602275162</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.795209527854098</v>
+        <v>2.304392744746337</v>
       </c>
       <c r="C2">
-        <v>0.1691544619688869</v>
+        <v>0.6421715995542741</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.00609228059264133</v>
+        <v>0.4622477729892509</v>
       </c>
       <c r="F2">
-        <v>3.06199767764393</v>
+        <v>1.21606733965389</v>
       </c>
       <c r="G2">
-        <v>0.0008742276961668337</v>
+        <v>0.1463784236298125</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.891331608245729E-05</v>
       </c>
       <c r="I2">
-        <v>2.321527348073133</v>
+        <v>0.003125166617377051</v>
       </c>
       <c r="J2">
-        <v>0.2014086764234193</v>
+        <v>0.1644345363481889</v>
       </c>
       <c r="K2">
-        <v>0.9273423069274997</v>
+        <v>0.1254163698397823</v>
       </c>
       <c r="L2">
-        <v>0.09564332058344149</v>
+        <v>0.03905678748122909</v>
       </c>
       <c r="M2">
-        <v>0.1610350830459062</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1.129609482906645</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.6045193181267337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6998465125903124</v>
+        <v>2.015181332394832</v>
       </c>
       <c r="C3">
-        <v>0.1464887230697514</v>
+        <v>0.5740116728590294</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.006196087812462725</v>
+        <v>0.4209255142360817</v>
       </c>
       <c r="F3">
-        <v>2.876730573983522</v>
+        <v>1.127672354742955</v>
       </c>
       <c r="G3">
-        <v>0.0008812194522656111</v>
+        <v>0.1419049095059179</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0004134059953309066</v>
       </c>
       <c r="I3">
-        <v>2.205629966269257</v>
+        <v>0.002078850275200494</v>
       </c>
       <c r="J3">
-        <v>0.199808196731734</v>
+        <v>0.1669788277065507</v>
       </c>
       <c r="K3">
-        <v>0.8121779387240053</v>
+        <v>0.1350712962324483</v>
       </c>
       <c r="L3">
-        <v>0.08775751010549016</v>
+        <v>0.0359964587170829</v>
       </c>
       <c r="M3">
-        <v>0.1432309343674909</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.9862366581307356</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.6000832747347431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.642457146802883</v>
+        <v>1.837086176213262</v>
       </c>
       <c r="C4">
-        <v>0.1327957443326966</v>
+        <v>0.5324271385139525</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.006271265657177283</v>
+        <v>0.3956050940004161</v>
       </c>
       <c r="F4">
-        <v>2.766063249989259</v>
+        <v>1.074134802569034</v>
       </c>
       <c r="G4">
-        <v>0.0008856398565581866</v>
+        <v>0.139513627836152</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0008907191727482999</v>
       </c>
       <c r="I4">
-        <v>2.136400138150492</v>
+        <v>0.001566437373011986</v>
       </c>
       <c r="J4">
-        <v>0.1988358617761037</v>
+        <v>0.1687935988630045</v>
       </c>
       <c r="K4">
-        <v>0.742782497210186</v>
+        <v>0.1413353024380202</v>
       </c>
       <c r="L4">
-        <v>0.08307176315344122</v>
+        <v>0.03409950000275153</v>
       </c>
       <c r="M4">
-        <v>0.1325448603865738</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.8982880985309336</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.5986350728477987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6193366409639225</v>
+        <v>1.764144862940412</v>
       </c>
       <c r="C5">
-        <v>0.1272646023446953</v>
+        <v>0.5164605542562128</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.00630477038455135</v>
+        <v>0.3854078324720831</v>
       </c>
       <c r="F5">
-        <v>2.721684815708272</v>
+        <v>1.051985649144513</v>
       </c>
       <c r="G5">
-        <v>0.000887474227480537</v>
+        <v>0.1383361596504074</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001143141795402758</v>
       </c>
       <c r="I5">
-        <v>2.108636902408961</v>
+        <v>0.001447040275907252</v>
       </c>
       <c r="J5">
-        <v>0.198441668429119</v>
+        <v>0.1694391586669823</v>
       </c>
       <c r="K5">
-        <v>0.7148006806730223</v>
+        <v>0.1438539465476314</v>
       </c>
       <c r="L5">
-        <v>0.08119954280449093</v>
+        <v>0.03334493628428525</v>
       </c>
       <c r="M5">
-        <v>0.1282471680291586</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.8628952161310153</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.5974157920287411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6155128303691981</v>
+        <v>1.751743577696232</v>
       </c>
       <c r="C6">
-        <v>0.1263489039017003</v>
+        <v>0.5149390113465415</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.006310506981020758</v>
+        <v>0.3838515537578004</v>
       </c>
       <c r="F6">
-        <v>2.714357664012539</v>
+        <v>1.047700740425228</v>
       </c>
       <c r="G6">
-        <v>0.0008877808451189155</v>
+        <v>0.1377950334991596</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001188864711504922</v>
       </c>
       <c r="I6">
-        <v>2.104052881480243</v>
+        <v>0.001508448771236459</v>
       </c>
       <c r="J6">
-        <v>0.1983763202812803</v>
+        <v>0.1693604446841093</v>
       </c>
       <c r="K6">
-        <v>0.7101713469376989</v>
+        <v>0.1441370962143687</v>
       </c>
       <c r="L6">
-        <v>0.08089085612747482</v>
+        <v>0.0332478671434</v>
       </c>
       <c r="M6">
-        <v>0.1275368454230801</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.857549412402868</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.5960909662481413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.642144291802083</v>
+        <v>1.835334131937685</v>
       </c>
       <c r="C7">
-        <v>0.1327209610401638</v>
+        <v>0.5352961991782479</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.006271705902870295</v>
+        <v>0.3958411749222037</v>
       </c>
       <c r="F7">
-        <v>2.765461906721754</v>
+        <v>1.07215088406727</v>
       </c>
       <c r="G7">
-        <v>0.0008856644606288405</v>
+        <v>0.1385402435495422</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0008948350191402277</v>
       </c>
       <c r="I7">
-        <v>2.13602394505844</v>
+        <v>0.001767287501957426</v>
       </c>
       <c r="J7">
-        <v>0.1988305380065825</v>
+        <v>0.1682855598515047</v>
       </c>
       <c r="K7">
-        <v>0.7424039631442554</v>
+        <v>0.1409897138819716</v>
       </c>
       <c r="L7">
-        <v>0.08304636543444843</v>
+        <v>0.03416746345996202</v>
       </c>
       <c r="M7">
-        <v>0.1324866756769225</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.8992623479423116</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.5955059676104213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7620702038554441</v>
+        <v>2.203753398756362</v>
       </c>
       <c r="C8">
-        <v>0.1612881981450585</v>
+        <v>0.6227396089311981</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.006125692889092038</v>
+        <v>0.4484856769842196</v>
       </c>
       <c r="F8">
-        <v>2.997441291396825</v>
+        <v>1.183202741054885</v>
       </c>
       <c r="G8">
-        <v>0.0008766126100862046</v>
+        <v>0.1434964345526311</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0001099218695177484</v>
       </c>
       <c r="I8">
-        <v>2.281141816288027</v>
+        <v>0.00297882554052098</v>
       </c>
       <c r="J8">
-        <v>0.2008543283412472</v>
+        <v>0.1645808183499895</v>
       </c>
       <c r="K8">
-        <v>0.8873395653088778</v>
+        <v>0.1281892691001874</v>
       </c>
       <c r="L8">
-        <v>0.09289062466640985</v>
+        <v>0.03810970144419912</v>
       </c>
       <c r="M8">
-        <v>0.1548421951048944</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>1.082085801187745</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.5986200520753897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.007787852642736</v>
+        <v>2.923846155389583</v>
       </c>
       <c r="C9">
-        <v>0.2194519271948536</v>
+        <v>0.7909953446540499</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.005930780162904714</v>
+        <v>0.5516168635139493</v>
       </c>
       <c r="F9">
-        <v>3.479638185552261</v>
+        <v>1.410464966715324</v>
       </c>
       <c r="G9">
-        <v>0.0008598256502343752</v>
+        <v>0.157996184859762</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0006288556989952898</v>
       </c>
       <c r="I9">
-        <v>2.582866565974001</v>
+        <v>0.00618676396292539</v>
       </c>
       <c r="J9">
-        <v>0.2049326526352466</v>
+        <v>0.1603422103159389</v>
       </c>
       <c r="K9">
-        <v>1.183650991104741</v>
+        <v>0.1065443125400263</v>
       </c>
       <c r="L9">
-        <v>0.1135332145707011</v>
+        <v>0.04556853654291615</v>
       </c>
       <c r="M9">
-        <v>0.200868697858553</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.43899945010152</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.6211453596190779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.196746863180664</v>
+        <v>3.461843369718963</v>
       </c>
       <c r="C10">
-        <v>0.2640553719842842</v>
+        <v>0.9197176166847214</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.005844759575108327</v>
+        <v>0.60721261933287</v>
       </c>
       <c r="F10">
-        <v>3.854783160600164</v>
+        <v>1.548362795849116</v>
       </c>
       <c r="G10">
-        <v>0.0008480079594719697</v>
+        <v>0.1672399257847559</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002497751586411301</v>
       </c>
       <c r="I10">
-        <v>2.817768796420239</v>
+        <v>0.009454845528092726</v>
       </c>
       <c r="J10">
-        <v>0.2080372277755913</v>
+        <v>0.1568015748945299</v>
       </c>
       <c r="K10">
-        <v>1.411253380890855</v>
+        <v>0.09162978863773485</v>
       </c>
       <c r="L10">
-        <v>0.1296657017867773</v>
+        <v>0.05301621930084721</v>
       </c>
       <c r="M10">
-        <v>0.236380926537084</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.678884995631606</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.6337779139780224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.28503776874021</v>
+        <v>3.804138962826528</v>
       </c>
       <c r="C11">
-        <v>0.2848940692655901</v>
+        <v>0.9991639950250431</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.00581854622154121</v>
+        <v>0.4660955947688095</v>
       </c>
       <c r="F11">
-        <v>4.031025026190434</v>
+        <v>1.333177957901995</v>
       </c>
       <c r="G11">
-        <v>0.0008427261756190085</v>
+        <v>0.1438702398052669</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02086207371678483</v>
       </c>
       <c r="I11">
-        <v>2.928187246471879</v>
+        <v>0.01115533456433759</v>
       </c>
       <c r="J11">
-        <v>0.2094832278363654</v>
+        <v>0.1410698892012263</v>
       </c>
       <c r="K11">
-        <v>1.517576024124168</v>
+        <v>0.07946543816546514</v>
       </c>
       <c r="L11">
-        <v>0.1372517143502989</v>
+        <v>0.08006753809875278</v>
       </c>
       <c r="M11">
-        <v>0.252994752513878</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.582852706458752</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.5514616774046743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.318852769856534</v>
+        <v>3.985140504790934</v>
       </c>
       <c r="C12">
-        <v>0.2928772026081958</v>
+        <v>1.034475917443757</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.005810534847039861</v>
+        <v>0.3545098190770233</v>
       </c>
       <c r="F12">
-        <v>4.098662839005215</v>
+        <v>1.138929596713098</v>
       </c>
       <c r="G12">
-        <v>0.0008407380318820845</v>
+        <v>0.1245918865492541</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05917235883843119</v>
       </c>
       <c r="I12">
-        <v>2.970574797387826</v>
+        <v>0.01153144814360907</v>
       </c>
       <c r="J12">
-        <v>0.2100365727316813</v>
+        <v>0.1296407907627568</v>
       </c>
       <c r="K12">
-        <v>1.558296652987025</v>
+        <v>0.07409199805543754</v>
       </c>
       <c r="L12">
-        <v>0.1401632873758416</v>
+        <v>0.1095728113532104</v>
       </c>
       <c r="M12">
-        <v>0.2593603048976796</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.452139220700488</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.4867125458259096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.311552373116172</v>
+        <v>4.049487412528777</v>
       </c>
       <c r="C13">
-        <v>0.291153577190812</v>
+        <v>1.042438991389815</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.005812173996386338</v>
+        <v>0.2600425984112142</v>
       </c>
       <c r="F13">
-        <v>4.084054227377266</v>
+        <v>0.9475808679152919</v>
       </c>
       <c r="G13">
-        <v>0.0008411657094637506</v>
+        <v>0.1057236609466017</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1144225249067006</v>
       </c>
       <c r="I13">
-        <v>2.961419267381189</v>
+        <v>0.01117235509292147</v>
       </c>
       <c r="J13">
-        <v>0.2099171273591978</v>
+        <v>0.1199671825206607</v>
       </c>
       <c r="K13">
-        <v>1.549505352700464</v>
+        <v>0.07284232636727817</v>
       </c>
       <c r="L13">
-        <v>0.1395344403788528</v>
+        <v>0.1423758719328063</v>
       </c>
       <c r="M13">
-        <v>0.257985926609944</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.290450768629796</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.4264220980555109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.287811831447385</v>
+        <v>4.041252126516156</v>
       </c>
       <c r="C14">
-        <v>0.2855489229355896</v>
+        <v>1.036619157192774</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.00581784835965804</v>
+        <v>0.204800243614681</v>
       </c>
       <c r="F14">
-        <v>4.036571034904597</v>
+        <v>0.8176428645374187</v>
       </c>
       <c r="G14">
-        <v>0.0008425623799480137</v>
+        <v>0.09273268420479752</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1634019270373983</v>
       </c>
       <c r="I14">
-        <v>2.931662602072151</v>
+        <v>0.01066780727260674</v>
       </c>
       <c r="J14">
-        <v>0.2095286304524819</v>
+        <v>0.1139697950911511</v>
       </c>
       <c r="K14">
-        <v>1.52091659040201</v>
+        <v>0.07394996678202981</v>
       </c>
       <c r="L14">
-        <v>0.1374904509303931</v>
+        <v>0.1676921477372204</v>
       </c>
       <c r="M14">
-        <v>0.2535169119761207</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.16523277213922</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.3862595975166414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.2733211396299</v>
+        <v>4.013221862205569</v>
       </c>
       <c r="C15">
-        <v>0.2821283015169058</v>
+        <v>1.030635344597215</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.005821575418347935</v>
+        <v>0.192589561842059</v>
       </c>
       <c r="F15">
-        <v>4.007606259325883</v>
+        <v>0.7846478169953315</v>
       </c>
       <c r="G15">
-        <v>0.0008434193879211743</v>
+        <v>0.0892831494611741</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1757717378982733</v>
       </c>
       <c r="I15">
-        <v>2.913512560914654</v>
+        <v>0.01048669649412126</v>
       </c>
       <c r="J15">
-        <v>0.2092914461870947</v>
+        <v>0.1126981195705454</v>
       </c>
       <c r="K15">
-        <v>1.503466691700254</v>
+        <v>0.07491709418014425</v>
       </c>
       <c r="L15">
-        <v>0.1362436213247946</v>
+        <v>0.1734856323599416</v>
       </c>
       <c r="M15">
-        <v>0.2507894405018583</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.128491603741253</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.3762488767326602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.19102758495788</v>
+        <v>3.764447194117793</v>
       </c>
       <c r="C16">
-        <v>0.2627056377697556</v>
+        <v>0.9747565665011848</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.005846737213792697</v>
+        <v>0.1905725153336171</v>
       </c>
       <c r="F16">
-        <v>3.843385709562114</v>
+        <v>0.7674100698250257</v>
       </c>
       <c r="G16">
-        <v>0.000848354898915605</v>
+        <v>0.08840131414135755</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1624464660213931</v>
       </c>
       <c r="I16">
-        <v>2.810629538345225</v>
+        <v>0.009164175097470029</v>
       </c>
       <c r="J16">
-        <v>0.2079434839836054</v>
+        <v>0.1156596266540575</v>
       </c>
       <c r="K16">
-        <v>1.404365816692973</v>
+        <v>0.08072941592878813</v>
       </c>
       <c r="L16">
-        <v>0.129175193564393</v>
+        <v>0.1626249946102618</v>
       </c>
       <c r="M16">
-        <v>0.2353050981677924</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1.063681210411204</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.3803949439921155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.141171664372905</v>
+        <v>3.578644400355699</v>
       </c>
       <c r="C17">
-        <v>0.2509398069819042</v>
+        <v>0.9352903778619179</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.005865518285751437</v>
+        <v>0.2162416357705013</v>
       </c>
       <c r="F17">
-        <v>3.744137650814224</v>
+        <v>0.8212596252283006</v>
       </c>
       <c r="G17">
-        <v>0.0008514057065737064</v>
+        <v>0.09456267712553768</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1244052306197858</v>
       </c>
       <c r="I17">
-        <v>2.748468595332412</v>
+        <v>0.0084637940743999</v>
       </c>
       <c r="J17">
-        <v>0.2071258203831619</v>
+        <v>0.1211238596058095</v>
       </c>
       <c r="K17">
-        <v>1.344323430935418</v>
+        <v>0.08461737047878692</v>
       </c>
       <c r="L17">
-        <v>0.1249045643072648</v>
+        <v>0.1403391767305919</v>
       </c>
       <c r="M17">
-        <v>0.2259291556350824</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1.079448865520341</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.4047899243629161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.112712402417969</v>
+        <v>3.427819386532065</v>
       </c>
       <c r="C18">
-        <v>0.2442231624560236</v>
+        <v>0.9026926235951862</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.005877532328874002</v>
+        <v>0.2784693357073209</v>
       </c>
       <c r="F18">
-        <v>3.68757238323272</v>
+        <v>0.9509743371190638</v>
       </c>
       <c r="G18">
-        <v>0.0008531694149255854</v>
+        <v>0.1085671004176874</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0715715144849014</v>
       </c>
       <c r="I18">
-        <v>2.713046285449863</v>
+        <v>0.007940135952504868</v>
       </c>
       <c r="J18">
-        <v>0.2066586345961809</v>
+        <v>0.1298644285992978</v>
       </c>
       <c r="K18">
-        <v>1.310046979262438</v>
+        <v>0.08790683219880269</v>
       </c>
       <c r="L18">
-        <v>0.1224712659871585</v>
+        <v>0.1093215220398349</v>
       </c>
       <c r="M18">
-        <v>0.2205790381691486</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1.167622112910763</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.4527297633361798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.10311245845088</v>
+        <v>3.316133057092372</v>
       </c>
       <c r="C19">
-        <v>0.2419573615050012</v>
+        <v>0.8846011861539012</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.005881806656659272</v>
+        <v>0.3814081172582817</v>
       </c>
       <c r="F19">
-        <v>3.66850683472282</v>
+        <v>1.142467634990183</v>
       </c>
       <c r="G19">
-        <v>0.000853768161825184</v>
+        <v>0.1274105433526742</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02661735043302116</v>
       </c>
       <c r="I19">
-        <v>2.70110794618563</v>
+        <v>0.008073327288244947</v>
       </c>
       <c r="J19">
-        <v>0.2065009612777189</v>
+        <v>0.1402178873047148</v>
       </c>
       <c r="K19">
-        <v>1.298484259803331</v>
+        <v>0.09123025074322921</v>
       </c>
       <c r="L19">
-        <v>0.1216512553708569</v>
+        <v>0.07944911851118519</v>
       </c>
       <c r="M19">
-        <v>0.2187746723898911</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.3147011653394</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.514356649177202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.146456184130273</v>
+        <v>3.31867150182336</v>
       </c>
       <c r="C20">
-        <v>0.2521869567879946</v>
+        <v>0.8958684336497242</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.005863393233905834</v>
+        <v>0.592882019083028</v>
       </c>
       <c r="F20">
-        <v>3.754648338003193</v>
+        <v>1.505260659107236</v>
       </c>
       <c r="G20">
-        <v>0.000851080026144</v>
+        <v>0.161595502143804</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001882768962952142</v>
       </c>
       <c r="I20">
-        <v>2.755051040957397</v>
+        <v>0.009192851852811046</v>
       </c>
       <c r="J20">
-        <v>0.2072125334777155</v>
+        <v>0.1560089059891538</v>
       </c>
       <c r="K20">
-        <v>1.3506879067196</v>
+        <v>0.09436533105667255</v>
       </c>
       <c r="L20">
-        <v>0.1253567706795948</v>
+        <v>0.05140105021803976</v>
       </c>
       <c r="M20">
-        <v>0.2269227668058278</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.619434299119931</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.6200352049953324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.294774271511557</v>
+        <v>3.714576576378875</v>
       </c>
       <c r="C21">
-        <v>0.2871925379700428</v>
+        <v>0.9906653057242352</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.005816129157528049</v>
+        <v>0.6679520009542301</v>
       </c>
       <c r="F21">
-        <v>4.050492797136542</v>
+        <v>1.665185286720288</v>
       </c>
       <c r="G21">
-        <v>0.0008421518329957168</v>
+        <v>0.1750713490690146</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.003816697140909819</v>
       </c>
       <c r="I21">
-        <v>2.940386735576553</v>
+        <v>0.01193581226625273</v>
       </c>
       <c r="J21">
-        <v>0.2096425768015351</v>
+        <v>0.1566568155143955</v>
       </c>
       <c r="K21">
-        <v>1.529300864893997</v>
+        <v>0.08501687395510071</v>
       </c>
       <c r="L21">
-        <v>0.1380897356903503</v>
+        <v>0.0539697081644448</v>
       </c>
       <c r="M21">
-        <v>0.2548274848155678</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.84049456233879</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.6503020277767462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.393955118681959</v>
+        <v>3.97983504371274</v>
       </c>
       <c r="C22">
-        <v>0.3106139495417324</v>
+        <v>1.049760040446245</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.005796439323444424</v>
+        <v>0.7060239136618023</v>
       </c>
       <c r="F22">
-        <v>4.249134732311859</v>
+        <v>1.756235470537604</v>
       </c>
       <c r="G22">
-        <v>0.0008363855656593619</v>
+        <v>0.1840065713584238</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.005419295576188254</v>
       </c>
       <c r="I22">
-        <v>3.064896472845973</v>
+        <v>0.01364537162717472</v>
       </c>
       <c r="J22">
-        <v>0.2112649164170435</v>
+        <v>0.1572104196888375</v>
       </c>
       <c r="K22">
-        <v>1.648739039568511</v>
+        <v>0.07935019952288602</v>
       </c>
       <c r="L22">
-        <v>0.1466400841817972</v>
+        <v>0.05655241501512265</v>
       </c>
       <c r="M22">
-        <v>0.2735020996061763</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.971114361944757</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.6706194232357205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.340798504678276</v>
+        <v>3.83918984409911</v>
       </c>
       <c r="C23">
-        <v>0.2980590744523397</v>
+        <v>1.014364555625889</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.005805900468997871</v>
+        <v>0.6852304825141076</v>
       </c>
       <c r="F23">
-        <v>4.142597637539779</v>
+        <v>1.709493022136655</v>
       </c>
       <c r="G23">
-        <v>0.0008394573982665722</v>
+        <v>0.1802903309644321</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.004533475592058411</v>
       </c>
       <c r="I23">
-        <v>2.998111497414101</v>
+        <v>0.01245879268979611</v>
       </c>
       <c r="J23">
-        <v>0.2103955860349132</v>
+        <v>0.1574684806313655</v>
       </c>
       <c r="K23">
-        <v>1.584724380262344</v>
+        <v>0.08270981468400773</v>
       </c>
       <c r="L23">
-        <v>0.142054488730885</v>
+        <v>0.05507887786686538</v>
       </c>
       <c r="M23">
-        <v>0.2634921525288156</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.899608407244443</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.6631669164640499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.144066422068647</v>
+        <v>3.304907949689095</v>
       </c>
       <c r="C24">
-        <v>0.2516229727958148</v>
+        <v>0.887165406840893</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.005864350184735745</v>
+        <v>0.6075598219484206</v>
       </c>
       <c r="F24">
-        <v>3.749894925466037</v>
+        <v>1.531852293471488</v>
       </c>
       <c r="G24">
-        <v>0.0008512272356675275</v>
+        <v>0.1655901694897963</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001850923222038059</v>
       </c>
       <c r="I24">
-        <v>2.752074141270683</v>
+        <v>0.008762625109438815</v>
       </c>
       <c r="J24">
-        <v>0.2071733215242411</v>
+        <v>0.1581870265233007</v>
       </c>
       <c r="K24">
-        <v>1.347809775523956</v>
+        <v>0.09570494323075618</v>
       </c>
       <c r="L24">
-        <v>0.1251522600799504</v>
+        <v>0.04963490633778633</v>
       </c>
       <c r="M24">
-        <v>0.2264734304790039</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.632306155857009</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.6330624190501055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9399902192034517</v>
+        <v>2.72798125709545</v>
       </c>
       <c r="C25">
-        <v>0.2034326757342484</v>
+        <v>0.7509137311780876</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.005973602731114358</v>
+        <v>0.5243207245309307</v>
       </c>
       <c r="F25">
-        <v>3.345854118812213</v>
+        <v>1.345165465591421</v>
       </c>
       <c r="G25">
-        <v>0.0008642708602271705</v>
+        <v>0.1519957577812789</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0002465521022065875</v>
       </c>
       <c r="I25">
-        <v>2.499134446287513</v>
+        <v>0.005537720925398837</v>
       </c>
       <c r="J25">
-        <v>0.2038135497499631</v>
+        <v>0.1603344958583435</v>
       </c>
       <c r="K25">
-        <v>1.101949104688885</v>
+        <v>0.1114544602968888</v>
       </c>
       <c r="L25">
-        <v>0.1077908144864708</v>
+        <v>0.04370781772390941</v>
       </c>
       <c r="M25">
-        <v>0.188147602275162</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.344943383831222</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.6082345729463157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.304392744746337</v>
+        <v>2.303708619964084</v>
       </c>
       <c r="C2">
-        <v>0.6421715995542741</v>
+        <v>0.6390296570957048</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4622477729892509</v>
+        <v>0.4611422568486532</v>
       </c>
       <c r="F2">
-        <v>1.21606733965389</v>
+        <v>1.213644547099491</v>
       </c>
       <c r="G2">
-        <v>0.1463784236298125</v>
+        <v>0.1308424191601532</v>
       </c>
       <c r="H2">
-        <v>2.891331608245729E-05</v>
+        <v>3.476256033496661E-05</v>
       </c>
       <c r="I2">
-        <v>0.003125166617377051</v>
+        <v>0.003246855830705719</v>
       </c>
       <c r="J2">
-        <v>0.1644345363481889</v>
+        <v>0.2052171066454349</v>
       </c>
       <c r="K2">
-        <v>0.1254163698397823</v>
+        <v>0.1242854100208843</v>
       </c>
       <c r="L2">
-        <v>0.03905678748122909</v>
+        <v>0.08915800406873231</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01900322812011324</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03932597127626281</v>
       </c>
       <c r="O2">
-        <v>1.129609482906645</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.6045193181267337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.132339693296487</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.6053425992254233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.015181332394832</v>
+        <v>2.017093104016624</v>
       </c>
       <c r="C3">
-        <v>0.5740116728590294</v>
+        <v>0.5647713320606158</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4209255142360817</v>
+        <v>0.419792003161426</v>
       </c>
       <c r="F3">
-        <v>1.127672354742955</v>
+        <v>1.127769373181565</v>
       </c>
       <c r="G3">
-        <v>0.1419049095059179</v>
+        <v>0.1270406039722474</v>
       </c>
       <c r="H3">
-        <v>0.0004134059953309066</v>
+        <v>0.0004216152179619126</v>
       </c>
       <c r="I3">
-        <v>0.002078850275200494</v>
+        <v>0.002291891582606453</v>
       </c>
       <c r="J3">
-        <v>0.1669788277065507</v>
+        <v>0.2069427655966507</v>
       </c>
       <c r="K3">
-        <v>0.1350712962324483</v>
+        <v>0.1334357998665707</v>
       </c>
       <c r="L3">
-        <v>0.0359964587170829</v>
+        <v>0.09420837729087861</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02198725179381994</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.03605364842477954</v>
       </c>
       <c r="O3">
-        <v>0.9862366581307356</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.6000832747347431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.9866928322836728</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.6037568241428488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.837086176213262</v>
+        <v>1.840513663332615</v>
       </c>
       <c r="C4">
-        <v>0.5324271385139525</v>
+        <v>0.5196164605014246</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3956050940004161</v>
+        <v>0.3944889130153939</v>
       </c>
       <c r="F4">
-        <v>1.074134802569034</v>
+        <v>1.07567914647683</v>
       </c>
       <c r="G4">
-        <v>0.139513627836152</v>
+        <v>0.1250408428473335</v>
       </c>
       <c r="H4">
-        <v>0.0008907191727482999</v>
+        <v>0.0008907310453312167</v>
       </c>
       <c r="I4">
-        <v>0.001566437373011986</v>
+        <v>0.001815883929451534</v>
       </c>
       <c r="J4">
-        <v>0.1687935988630045</v>
+        <v>0.2081141282132535</v>
       </c>
       <c r="K4">
-        <v>0.1413353024380202</v>
+        <v>0.1393391247524418</v>
       </c>
       <c r="L4">
-        <v>0.03409950000275153</v>
+        <v>0.09762575843236476</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02422375138059851</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.03403288290267525</v>
       </c>
       <c r="O4">
-        <v>0.8982880985309336</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.5986350728477987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.8974030578108696</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.6037627987466436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.764144862940412</v>
+        <v>1.768176705809083</v>
       </c>
       <c r="C5">
-        <v>0.5164605542562128</v>
+        <v>0.5022139075784651</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3854078324720831</v>
+        <v>0.3843043776608539</v>
       </c>
       <c r="F5">
-        <v>1.051985649144513</v>
+        <v>1.054107026265953</v>
       </c>
       <c r="G5">
-        <v>0.1383361596504074</v>
+        <v>0.1240266426984746</v>
       </c>
       <c r="H5">
-        <v>0.001143141795402758</v>
+        <v>0.001137531737877007</v>
       </c>
       <c r="I5">
-        <v>0.001447040275907252</v>
+        <v>0.001719468930783563</v>
       </c>
       <c r="J5">
-        <v>0.1694391586669823</v>
+        <v>0.2084586548883323</v>
       </c>
       <c r="K5">
-        <v>0.1438539465476314</v>
+        <v>0.1416984475925931</v>
       </c>
       <c r="L5">
-        <v>0.03334493628428525</v>
+        <v>0.09900209383458325</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02524168015879713</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0332286244335922</v>
       </c>
       <c r="O5">
-        <v>0.8628952161310153</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.5974157920287411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.8614669809560453</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.6030797622170496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.751743577696232</v>
+        <v>1.755880410502499</v>
       </c>
       <c r="C6">
-        <v>0.5149390113465415</v>
+        <v>0.5004262617250959</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3838515537578004</v>
+        <v>0.3827470790201843</v>
       </c>
       <c r="F6">
-        <v>1.047700740425228</v>
+        <v>1.049931041183342</v>
       </c>
       <c r="G6">
-        <v>0.1377950334991596</v>
+        <v>0.1235239963167274</v>
       </c>
       <c r="H6">
-        <v>0.001188864711504922</v>
+        <v>0.001182181651640524</v>
       </c>
       <c r="I6">
-        <v>0.001508448771236459</v>
+        <v>0.001801483978081997</v>
       </c>
       <c r="J6">
-        <v>0.1693604446841093</v>
+        <v>0.2083221527834738</v>
       </c>
       <c r="K6">
-        <v>0.1441370962143687</v>
+        <v>0.1419545434734761</v>
       </c>
       <c r="L6">
-        <v>0.0332478671434</v>
+        <v>0.09911976626730556</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02542420492954789</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03312238974000259</v>
       </c>
       <c r="O6">
-        <v>0.857549412402868</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.5960909662481413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.8560181589019678</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.6018593649460655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.835334131937685</v>
+        <v>1.838611050273073</v>
       </c>
       <c r="C7">
-        <v>0.5352961991782479</v>
+        <v>0.5218755976304124</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3958411749222037</v>
+        <v>0.3950640539076034</v>
       </c>
       <c r="F7">
-        <v>1.07215088406727</v>
+        <v>1.07291474760649</v>
       </c>
       <c r="G7">
-        <v>0.1385402435495422</v>
+        <v>0.1257632802943789</v>
       </c>
       <c r="H7">
-        <v>0.0008948350191402277</v>
+        <v>0.0008957949317918157</v>
       </c>
       <c r="I7">
-        <v>0.001767287501957426</v>
+        <v>0.002058415408667358</v>
       </c>
       <c r="J7">
-        <v>0.1682855598515047</v>
+        <v>0.2049176074987145</v>
       </c>
       <c r="K7">
-        <v>0.1409897138819716</v>
+        <v>0.1388728740191176</v>
       </c>
       <c r="L7">
-        <v>0.03416746345996202</v>
+        <v>0.09724450644579363</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02424994314121354</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.03413899010716648</v>
       </c>
       <c r="O7">
-        <v>0.8992623479423116</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.5955059676104213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.8986114889098431</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.5989100828303151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.203753398756362</v>
+        <v>2.203423656879181</v>
       </c>
       <c r="C8">
-        <v>0.6227396089311981</v>
+        <v>0.6156565162934271</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4484856769842196</v>
+        <v>0.4485253573244563</v>
       </c>
       <c r="F8">
-        <v>1.183202741054885</v>
+        <v>1.178977054743186</v>
       </c>
       <c r="G8">
-        <v>0.1434964345526311</v>
+        <v>0.1338088518377702</v>
       </c>
       <c r="H8">
-        <v>0.0001099218695177484</v>
+        <v>0.000119828097178809</v>
       </c>
       <c r="I8">
-        <v>0.00297882554052098</v>
+        <v>0.003180500834776723</v>
       </c>
       <c r="J8">
-        <v>0.1645808183499895</v>
+        <v>0.1965257675237027</v>
       </c>
       <c r="K8">
-        <v>0.1281892691001874</v>
+        <v>0.1265428852156081</v>
       </c>
       <c r="L8">
-        <v>0.03810970144419912</v>
+        <v>0.09025732465732528</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01987089065983483</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.03844340675155067</v>
       </c>
       <c r="O8">
-        <v>1.082085801187745</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.5986200520753897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1.084904483216341</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.5947180283563824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.923846155389583</v>
+        <v>2.916341264682671</v>
       </c>
       <c r="C9">
-        <v>0.7909953446540499</v>
+        <v>0.7996744392119695</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5516168635139493</v>
+        <v>0.5522798009868879</v>
       </c>
       <c r="F9">
-        <v>1.410464966715324</v>
+        <v>1.398571556935124</v>
       </c>
       <c r="G9">
-        <v>0.157996184859762</v>
+        <v>0.1480356322124123</v>
       </c>
       <c r="H9">
-        <v>0.0006288556989952898</v>
+        <v>0.0005684238500540673</v>
       </c>
       <c r="I9">
-        <v>0.00618676396292539</v>
+        <v>0.005974134568897504</v>
       </c>
       <c r="J9">
-        <v>0.1603422103159389</v>
+        <v>0.1912165251394882</v>
       </c>
       <c r="K9">
-        <v>0.1065443125400263</v>
+        <v>0.1057977888833257</v>
       </c>
       <c r="L9">
-        <v>0.04556853654291615</v>
+        <v>0.07984930382411726</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.01460972913049519</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.0465139194884685</v>
       </c>
       <c r="O9">
-        <v>1.43899945010152</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.6211453596190779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.448072297915701</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.6067716965762173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.461843369718963</v>
+        <v>3.447709454048436</v>
       </c>
       <c r="C10">
-        <v>0.9197176166847214</v>
+        <v>0.9367846307587513</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.60721261933287</v>
+        <v>0.6103887820112419</v>
       </c>
       <c r="F10">
-        <v>1.548362795849116</v>
+        <v>1.526256713991614</v>
       </c>
       <c r="G10">
-        <v>0.1672399257847559</v>
+        <v>0.1673501226406771</v>
       </c>
       <c r="H10">
-        <v>0.002497751586411301</v>
+        <v>0.002323322666372807</v>
       </c>
       <c r="I10">
-        <v>0.009454845528092726</v>
+        <v>0.008801936739515348</v>
       </c>
       <c r="J10">
-        <v>0.1568015748945299</v>
+        <v>0.1729307240055959</v>
       </c>
       <c r="K10">
-        <v>0.09162978863773485</v>
+        <v>0.09097115438546943</v>
       </c>
       <c r="L10">
-        <v>0.05301621930084721</v>
+        <v>0.07337544757092473</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.01227045867260124</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.05477345763604902</v>
       </c>
       <c r="O10">
-        <v>1.678884995631606</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.6337779139780224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.693874807650616</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.6013210218325611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.804138962826528</v>
+        <v>3.786928985059262</v>
       </c>
       <c r="C11">
-        <v>0.9991639950250431</v>
+        <v>1.006586316376456</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4660955947688095</v>
+        <v>0.4712068882730591</v>
       </c>
       <c r="F11">
-        <v>1.333177957901995</v>
+        <v>1.305642614987534</v>
       </c>
       <c r="G11">
-        <v>0.1438702398052669</v>
+        <v>0.1670641217389885</v>
       </c>
       <c r="H11">
-        <v>0.02086207371678483</v>
+        <v>0.02066571648985871</v>
       </c>
       <c r="I11">
-        <v>0.01115533456433759</v>
+        <v>0.01034911340722289</v>
       </c>
       <c r="J11">
-        <v>0.1410698892012263</v>
+        <v>0.1381220719203</v>
       </c>
       <c r="K11">
-        <v>0.07946543816546514</v>
+        <v>0.08021814790386594</v>
       </c>
       <c r="L11">
-        <v>0.08006753809875278</v>
+        <v>0.06983835223822532</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.009068534373307457</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08356696198587343</v>
       </c>
       <c r="O11">
-        <v>1.582852706458752</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.5514616774046743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.598785873445564</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.5063291557668208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.985140504790934</v>
+        <v>3.96739348566075</v>
       </c>
       <c r="C12">
-        <v>1.034475917443757</v>
+        <v>1.033451316856514</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3545098190770233</v>
+        <v>0.3589148988055584</v>
       </c>
       <c r="F12">
-        <v>1.138929596713098</v>
+        <v>1.112309897404828</v>
       </c>
       <c r="G12">
-        <v>0.1245918865492541</v>
+        <v>0.1575793420042046</v>
       </c>
       <c r="H12">
-        <v>0.05917235883843119</v>
+        <v>0.05898424817876702</v>
       </c>
       <c r="I12">
-        <v>0.01153144814360907</v>
+        <v>0.01063189825009392</v>
       </c>
       <c r="J12">
-        <v>0.1296407907627568</v>
+        <v>0.1243688668550611</v>
       </c>
       <c r="K12">
-        <v>0.07409199805543754</v>
+        <v>0.07629593539158597</v>
       </c>
       <c r="L12">
-        <v>0.1095728113532104</v>
+        <v>0.06904050981010856</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.007432937421856245</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1143148120935535</v>
       </c>
       <c r="O12">
-        <v>1.452139220700488</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.4867125458259096</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.466647792157531</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.4415073934644909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.049487412528777</v>
+        <v>4.033748546342451</v>
       </c>
       <c r="C13">
-        <v>1.042438991389815</v>
+        <v>1.034946252572524</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2600425984112142</v>
+        <v>0.2618797018423251</v>
       </c>
       <c r="F13">
-        <v>0.9475808679152919</v>
+        <v>0.9274747320853862</v>
       </c>
       <c r="G13">
-        <v>0.1057236609466017</v>
+        <v>0.1351886689356689</v>
       </c>
       <c r="H13">
-        <v>0.1144225249067006</v>
+        <v>0.1142666293099666</v>
       </c>
       <c r="I13">
-        <v>0.01117235509292147</v>
+        <v>0.01032062322309368</v>
       </c>
       <c r="J13">
-        <v>0.1199671825206607</v>
+        <v>0.1218012703225497</v>
       </c>
       <c r="K13">
-        <v>0.07284232636727817</v>
+        <v>0.07623919314174543</v>
       </c>
       <c r="L13">
-        <v>0.1423758719328063</v>
+        <v>0.06937595208804392</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.006796874112495854</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.147323262727646</v>
       </c>
       <c r="O13">
-        <v>1.290450768629796</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.4264220980555109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.301147055149258</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.3927509980163535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.041252126516156</v>
+        <v>4.028078386143363</v>
       </c>
       <c r="C14">
-        <v>1.036619157192774</v>
+        <v>1.025445124312796</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.204800243614681</v>
+        <v>0.2045692478913566</v>
       </c>
       <c r="F14">
-        <v>0.8176428645374187</v>
+        <v>0.8038060372376989</v>
       </c>
       <c r="G14">
-        <v>0.09273268420479752</v>
+        <v>0.1148339013995141</v>
       </c>
       <c r="H14">
-        <v>0.1634019270373983</v>
+        <v>0.1632756131217405</v>
       </c>
       <c r="I14">
-        <v>0.01066780727260674</v>
+        <v>0.009926281463438436</v>
       </c>
       <c r="J14">
-        <v>0.1139697950911511</v>
+        <v>0.1235993553998469</v>
       </c>
       <c r="K14">
-        <v>0.07394996678202981</v>
+        <v>0.07779768343013593</v>
       </c>
       <c r="L14">
-        <v>0.1676921477372204</v>
+        <v>0.06994579722512473</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.006874350715587008</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1720764667569483</v>
       </c>
       <c r="O14">
-        <v>1.16523277213922</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.3862595975166414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.172398174038761</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.3645830732847912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.013221862205569</v>
+        <v>4.001185665396804</v>
       </c>
       <c r="C15">
-        <v>1.030635344597215</v>
+        <v>1.018914234856453</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.192589561842059</v>
+        <v>0.1917400887703415</v>
       </c>
       <c r="F15">
-        <v>0.7846478169953315</v>
+        <v>0.7731275603836991</v>
       </c>
       <c r="G15">
-        <v>0.0892831494611741</v>
+        <v>0.1076531545203778</v>
       </c>
       <c r="H15">
-        <v>0.1757717378982733</v>
+        <v>0.1756577167076756</v>
       </c>
       <c r="I15">
-        <v>0.01048669649412126</v>
+        <v>0.009823710593601653</v>
       </c>
       <c r="J15">
-        <v>0.1126981195705454</v>
+        <v>0.1256448891057769</v>
       </c>
       <c r="K15">
-        <v>0.07491709418014425</v>
+        <v>0.07875223477644644</v>
       </c>
       <c r="L15">
-        <v>0.1734856323599416</v>
+        <v>0.07018273588599744</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.007067811495215737</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1774505892136418</v>
       </c>
       <c r="O15">
-        <v>1.128491603741253</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.3762488767326602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.134386920840313</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.3592760664094072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.764447194117793</v>
+        <v>3.756743176523457</v>
       </c>
       <c r="C16">
-        <v>0.9747565665011848</v>
+        <v>0.9659435999026869</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1905725153336171</v>
+        <v>0.1883172720188071</v>
       </c>
       <c r="F16">
-        <v>0.7674100698250257</v>
+        <v>0.7631467580891709</v>
       </c>
       <c r="G16">
-        <v>0.08840131414135755</v>
+        <v>0.09101272747053457</v>
       </c>
       <c r="H16">
-        <v>0.1624464660213931</v>
+        <v>0.162383034547716</v>
       </c>
       <c r="I16">
-        <v>0.009164175097470029</v>
+        <v>0.008785855078591531</v>
       </c>
       <c r="J16">
-        <v>0.1156596266540575</v>
+        <v>0.1430123119356317</v>
       </c>
       <c r="K16">
-        <v>0.08072941592878813</v>
+        <v>0.08376744969846106</v>
       </c>
       <c r="L16">
-        <v>0.1626249946102618</v>
+        <v>0.0711156648324125</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.008507066584845457</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1645702861776996</v>
       </c>
       <c r="O16">
-        <v>1.063681210411204</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.3803949439921155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.065968274701511</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.3789613060248627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.578644400355699</v>
+        <v>3.572523547830258</v>
       </c>
       <c r="C17">
-        <v>0.9352903778619179</v>
+        <v>0.9297168417652983</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2162416357705013</v>
+        <v>0.2136772358309891</v>
       </c>
       <c r="F17">
-        <v>0.8212596252283006</v>
+        <v>0.8191145436905884</v>
       </c>
       <c r="G17">
-        <v>0.09456267712553768</v>
+        <v>0.09042004280274796</v>
       </c>
       <c r="H17">
-        <v>0.1244052306197858</v>
+        <v>0.1243621793051517</v>
       </c>
       <c r="I17">
-        <v>0.0084637940743999</v>
+        <v>0.008233263768385513</v>
       </c>
       <c r="J17">
-        <v>0.1211238596058095</v>
+        <v>0.1557158308427091</v>
       </c>
       <c r="K17">
-        <v>0.08461737047878692</v>
+        <v>0.08715544120331598</v>
       </c>
       <c r="L17">
-        <v>0.1403391767305919</v>
+        <v>0.07195056727507332</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.009523061484966955</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1415520537973194</v>
       </c>
       <c r="O17">
-        <v>1.079448865520341</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.4047899243629161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1.08103421538388</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.4081869885136626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.427819386532065</v>
+        <v>3.421576579629175</v>
       </c>
       <c r="C18">
-        <v>0.9026926235951862</v>
+        <v>0.9022026742921412</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2784693357073209</v>
+        <v>0.2761130473393862</v>
       </c>
       <c r="F18">
-        <v>0.9509743371190638</v>
+        <v>0.9479937277470754</v>
       </c>
       <c r="G18">
-        <v>0.1085671004176874</v>
+        <v>0.1005990293760064</v>
       </c>
       <c r="H18">
-        <v>0.0715715144849014</v>
+        <v>0.07152958028152767</v>
       </c>
       <c r="I18">
-        <v>0.007940135952504868</v>
+        <v>0.007723905122480446</v>
       </c>
       <c r="J18">
-        <v>0.1298644285992978</v>
+        <v>0.1674083967623972</v>
       </c>
       <c r="K18">
-        <v>0.08790683219880269</v>
+        <v>0.08998518477292819</v>
       </c>
       <c r="L18">
-        <v>0.1093215220398349</v>
+        <v>0.0729398474362819</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01037187702256304</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1104399807851522</v>
       </c>
       <c r="O18">
-        <v>1.167622112910763</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.4527297633361798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1.170453827210636</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.4550114411161417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.316133057092372</v>
+        <v>3.308672845182684</v>
       </c>
       <c r="C19">
-        <v>0.8846011861539012</v>
+        <v>0.8905380366728366</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3814081172582817</v>
+        <v>0.3797422633752987</v>
       </c>
       <c r="F19">
-        <v>1.142467634990183</v>
+        <v>1.136453961469684</v>
       </c>
       <c r="G19">
-        <v>0.1274105433526742</v>
+        <v>0.1168987836194901</v>
       </c>
       <c r="H19">
-        <v>0.02661735043302116</v>
+        <v>0.02655840974581025</v>
       </c>
       <c r="I19">
-        <v>0.008073327288244947</v>
+        <v>0.007882206020993543</v>
       </c>
       <c r="J19">
-        <v>0.1402178873047148</v>
+        <v>0.1779707992424662</v>
       </c>
       <c r="K19">
-        <v>0.09123025074322921</v>
+        <v>0.09267325481631139</v>
       </c>
       <c r="L19">
-        <v>0.07944911851118519</v>
+        <v>0.0740804435918021</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01125308564834793</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08066194911022251</v>
       </c>
       <c r="O19">
-        <v>1.3147011653394</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.514356649177202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.320179124737223</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.511500935114185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.31867150182336</v>
+        <v>3.307033554811369</v>
       </c>
       <c r="C20">
-        <v>0.8958684336497242</v>
+        <v>0.9124950282616453</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.592882019083028</v>
+        <v>0.5940655146350338</v>
       </c>
       <c r="F20">
-        <v>1.505260659107236</v>
+        <v>1.489014932696023</v>
       </c>
       <c r="G20">
-        <v>0.161595502143804</v>
+        <v>0.1529764795786122</v>
       </c>
       <c r="H20">
-        <v>0.001882768962952142</v>
+        <v>0.00174741624435093</v>
       </c>
       <c r="I20">
-        <v>0.009192851852811046</v>
+        <v>0.008847700080632848</v>
       </c>
       <c r="J20">
-        <v>0.1560089059891538</v>
+        <v>0.1844079252832103</v>
       </c>
       <c r="K20">
-        <v>0.09436533105667255</v>
+        <v>0.09418788240532283</v>
       </c>
       <c r="L20">
-        <v>0.05140105021803976</v>
+        <v>0.0747242343612724</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.01255387995474067</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.0527719142873373</v>
       </c>
       <c r="O20">
-        <v>1.619434299119931</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.6200352049953324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.631721655505956</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.5992014907472907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.714576576378875</v>
+        <v>3.693951134131851</v>
       </c>
       <c r="C21">
-        <v>0.9906653057242352</v>
+        <v>1.005116142775051</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6679520009542301</v>
+        <v>0.6786122685665816</v>
       </c>
       <c r="F21">
-        <v>1.665185286720288</v>
+        <v>1.623913253087267</v>
       </c>
       <c r="G21">
-        <v>0.1750713490690146</v>
+        <v>0.2086586022553192</v>
       </c>
       <c r="H21">
-        <v>0.003816697140909819</v>
+        <v>0.0035334876449854</v>
       </c>
       <c r="I21">
-        <v>0.01193581226625273</v>
+        <v>0.01106145598007657</v>
       </c>
       <c r="J21">
-        <v>0.1566568155143955</v>
+        <v>0.1382727740771834</v>
       </c>
       <c r="K21">
-        <v>0.08501687395510071</v>
+        <v>0.08299372877316946</v>
       </c>
       <c r="L21">
-        <v>0.0539697081644448</v>
+        <v>0.0704123490331281</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.01098391634531115</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.05677246532743396</v>
       </c>
       <c r="O21">
-        <v>1.84049456233879</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.6503020277767462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.863661362610998</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.5808860349262659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.97983504371274</v>
+        <v>3.952991796713718</v>
       </c>
       <c r="C22">
-        <v>1.049760040446245</v>
+        <v>1.06156547870026</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7060239136618023</v>
+        <v>0.7236541741470432</v>
       </c>
       <c r="F22">
-        <v>1.756235470537604</v>
+        <v>1.697248309352176</v>
       </c>
       <c r="G22">
-        <v>0.1840065713584238</v>
+        <v>0.2517306641660682</v>
       </c>
       <c r="H22">
-        <v>0.005419295576188254</v>
+        <v>0.005018961660549714</v>
       </c>
       <c r="I22">
-        <v>0.01364537162717472</v>
+        <v>0.01231237508720984</v>
       </c>
       <c r="J22">
-        <v>0.1572104196888375</v>
+        <v>0.116786623815349</v>
       </c>
       <c r="K22">
-        <v>0.07935019952288602</v>
+        <v>0.07608386172780968</v>
       </c>
       <c r="L22">
-        <v>0.05655241501512265</v>
+        <v>0.06809656062633618</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.01019969054112924</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.06042207915379549</v>
       </c>
       <c r="O22">
-        <v>1.971114361944757</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.6706194232357205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>2.001766381716067</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.5669570825671997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.83918984409911</v>
+        <v>3.816115679157349</v>
       </c>
       <c r="C23">
-        <v>1.014364555625889</v>
+        <v>1.029057641702053</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6852304825141076</v>
+        <v>0.6980992354538174</v>
       </c>
       <c r="F23">
-        <v>1.709493022136655</v>
+        <v>1.662139770258946</v>
       </c>
       <c r="G23">
-        <v>0.1802903309644321</v>
+        <v>0.2242406866286402</v>
       </c>
       <c r="H23">
-        <v>0.004533475592058411</v>
+        <v>0.004201070773228843</v>
       </c>
       <c r="I23">
-        <v>0.01245879268979611</v>
+        <v>0.01132269248418716</v>
       </c>
       <c r="J23">
-        <v>0.1574684806313655</v>
+        <v>0.1306099544340888</v>
       </c>
       <c r="K23">
-        <v>0.08270981468400773</v>
+        <v>0.08017559133087815</v>
       </c>
       <c r="L23">
-        <v>0.05507887786686538</v>
+        <v>0.06938129087570394</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.0108489247081005</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.05824169930696854</v>
       </c>
       <c r="O23">
-        <v>1.899608407244443</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.6631669164640499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.92551179037973</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.5818519053597697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.304907949689095</v>
+        <v>3.293172500129515</v>
       </c>
       <c r="C24">
-        <v>0.887165406840893</v>
+        <v>0.9044743813459206</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6075598219484206</v>
+        <v>0.6088410022407089</v>
       </c>
       <c r="F24">
-        <v>1.531852293471488</v>
+        <v>1.515194179092973</v>
       </c>
       <c r="G24">
-        <v>0.1655901694897963</v>
+        <v>0.1563665100883895</v>
       </c>
       <c r="H24">
-        <v>0.001850923222038059</v>
+        <v>0.001712547081377469</v>
       </c>
       <c r="I24">
-        <v>0.008762625109438815</v>
+        <v>0.008318417341307338</v>
       </c>
       <c r="J24">
-        <v>0.1581870265233007</v>
+        <v>0.1868081915588391</v>
       </c>
       <c r="K24">
-        <v>0.09570494323075618</v>
+        <v>0.09529671773874604</v>
       </c>
       <c r="L24">
-        <v>0.04963490633778633</v>
+        <v>0.07514944923837996</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.01295967238683016</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.05095213859286574</v>
       </c>
       <c r="O24">
-        <v>1.632306155857009</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.6330624190501055</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.644931467055756</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.6114532358199796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.72798125709545</v>
+        <v>2.722790343104123</v>
       </c>
       <c r="C25">
-        <v>0.7509137311780876</v>
+        <v>0.7558668315937496</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5243207245309307</v>
+        <v>0.5242581213456745</v>
       </c>
       <c r="F25">
-        <v>1.345165465591421</v>
+        <v>1.336708584159581</v>
       </c>
       <c r="G25">
-        <v>0.1519957577812789</v>
+        <v>0.139777140113118</v>
       </c>
       <c r="H25">
-        <v>0.0002465521022065875</v>
+        <v>0.0002158774879976733</v>
       </c>
       <c r="I25">
-        <v>0.005537720925398837</v>
+        <v>0.005550580066152833</v>
       </c>
       <c r="J25">
-        <v>0.1603344958583435</v>
+        <v>0.1952391159667144</v>
       </c>
       <c r="K25">
-        <v>0.1114544602968888</v>
+        <v>0.1107306138675375</v>
       </c>
       <c r="L25">
-        <v>0.04370781772390941</v>
+        <v>0.08218299605912094</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.01556789100288958</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.04442045927584459</v>
       </c>
       <c r="O25">
-        <v>1.344943383831222</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.6082345729463157</v>
+        <v>1.351822391187298</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.5997293310279872</v>
       </c>
     </row>
   </sheetData>
